--- a/2. Excel/1. Tutorial/Chapter_2/Chapter - 2 - Excel_Data_Analysts_Training.xlsx
+++ b/2. Excel/1. Tutorial/Chapter_2/Chapter - 2 - Excel_Data_Analysts_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python-Development\2. Excel\1. Tutorial\Chapter_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435E7B94-E14B-4D2C-9956-2FB0B6966842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED7B6BB-F5DC-4C54-AF49-8DCD4BE8EAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9657" uniqueCount="4130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9669" uniqueCount="4137">
   <si>
     <t>Employee ID</t>
   </si>
@@ -12555,17 +12555,39 @@
   <si>
     <t>WH2654WM01         </t>
   </si>
+  <si>
+    <t>Sub1</t>
+  </si>
+  <si>
+    <t>Sub2</t>
+  </si>
+  <si>
+    <t>Sub3</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="173" formatCode="[$₹-4009]\ #,##0.00;[$₹-4009]\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12604,6 +12626,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -12661,10 +12690,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12678,12 +12708,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12698,17 +12722,223 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -12728,6 +12958,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B881E209-F595-4975-A05D-89D1961D1D09}" name="Table1" displayName="Table1" ref="H476:K477" totalsRowShown="0">
+  <autoFilter ref="H476:K477" xr:uid="{B881E209-F595-4975-A05D-89D1961D1D09}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2AC5B68B-398E-4059-B59C-5990131F5073}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{F47774CD-7418-4577-8A9A-581B30ADE93B}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{D716C448-C0BF-4A66-B60B-DC5DE6607D93}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{644DA880-86CD-4036-93C8-E77B8FE9DD3D}" name="Column4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69F132DE-FABE-4258-B6C4-FF011F1AEF49}" name="Table2" displayName="Table2" ref="H478:K489" totalsRowCount="1">
+  <autoFilter ref="H478:K488" xr:uid="{69F132DE-FABE-4258-B6C4-FF011F1AEF49}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A5C1FBF9-9A19-49EB-9BFE-5962104EF506}" name="Column1" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[Column1])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{BB922F28-B76D-42DC-BF55-85489237C48D}" name="Column2" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[Column2])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BE1A4653-C33E-435F-B6C9-185A4B72AB96}" name="Column3" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[Column3])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EE626FA6-4BA5-4064-84E8-486B7F4A183C}" name="Column4" totalsRowFunction="custom" dataDxfId="24">
+      <totalsRowFormula>SUM(Table2[Column4])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13017,10 +13281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:O722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13028,11 +13292,10 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="8" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13045,10 +13308,10 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -13065,13 +13328,13 @@
       <c r="C2" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="14">
         <v>41954</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="12">
         <v>43831</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>507</v>
       </c>
       <c r="H2" t="s">
@@ -13109,10 +13372,10 @@
       <c r="C3" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="14">
         <v>49855</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <v>43832</v>
       </c>
       <c r="H3">
@@ -13140,6 +13403,10 @@
         <f>AVERAGE(H3:J3)</f>
         <v>78</v>
       </c>
+      <c r="O3">
+        <f>SUM(H3:N3)</f>
+        <v>692</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -13151,10 +13418,10 @@
       <c r="C4" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="14">
         <v>94210</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>43833</v>
       </c>
       <c r="H4">
@@ -13167,7 +13434,7 @@
         <v>14</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K12" si="0">SUM(H4:J4)+$H$15</f>
+        <f t="shared" ref="K4:L12" si="0">SUM(H4:J4)+$H$15</f>
         <v>141</v>
       </c>
       <c r="L4">
@@ -13182,6 +13449,10 @@
         <f t="shared" ref="N4:N12" si="3">AVERAGE(H4:J4)</f>
         <v>43.666666666666664</v>
       </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O12" si="4">SUM(H4:N4)</f>
+        <v>389.66666666666669</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -13193,10 +13464,10 @@
       <c r="C5" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="14">
         <v>74689</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>43834</v>
       </c>
       <c r="H5">
@@ -13224,6 +13495,10 @@
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>528</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -13235,10 +13510,10 @@
       <c r="C6" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="14">
         <v>90652</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>43835</v>
       </c>
       <c r="H6">
@@ -13266,6 +13541,10 @@
         <f t="shared" si="3"/>
         <v>15.333333333333334</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>149.33333333333334</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -13277,10 +13556,10 @@
       <c r="C7" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="14">
         <v>74820</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <v>43836</v>
       </c>
       <c r="H7">
@@ -13308,6 +13587,10 @@
         <f t="shared" si="3"/>
         <v>73.666666666666671</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>669.66666666666663</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -13319,10 +13602,10 @@
       <c r="C8" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="14">
         <v>85206</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>43837</v>
       </c>
       <c r="H8">
@@ -13350,6 +13633,10 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>338</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -13361,10 +13648,10 @@
       <c r="C9" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="14">
         <v>30924</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>43838</v>
       </c>
       <c r="H9">
@@ -13392,6 +13679,10 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>506</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -13403,10 +13694,10 @@
       <c r="C10" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="14">
         <v>57737</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>43839</v>
       </c>
       <c r="H10">
@@ -13434,6 +13725,10 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>366</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -13445,10 +13740,10 @@
       <c r="C11" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="14">
         <v>36000</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>43840</v>
       </c>
       <c r="H11">
@@ -13476,6 +13771,10 @@
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>736</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -13487,10 +13786,10 @@
       <c r="C12" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="14">
         <v>96371</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>43841</v>
       </c>
       <c r="H12">
@@ -13518,6 +13817,10 @@
         <f t="shared" si="3"/>
         <v>56.333333333333336</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>520.33333333333337</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -13529,10 +13832,10 @@
       <c r="C13" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="14">
         <v>85028</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="12">
         <v>43842</v>
       </c>
     </row>
@@ -13546,10 +13849,10 @@
       <c r="C14" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="14">
         <v>51378</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="12">
         <v>43843</v>
       </c>
       <c r="H14" t="s">
@@ -13566,10 +13869,10 @@
       <c r="C15" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="14">
         <v>49898</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="12">
         <v>43844</v>
       </c>
       <c r="H15">
@@ -13586,10 +13889,10 @@
       <c r="C16" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="14">
         <v>71737</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="12">
         <v>43845</v>
       </c>
     </row>
@@ -13603,10 +13906,10 @@
       <c r="C17" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="14">
         <v>89576</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="12">
         <v>43846</v>
       </c>
     </row>
@@ -13620,10 +13923,10 @@
       <c r="C18" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="14">
         <v>45503</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="12">
         <v>43847</v>
       </c>
     </row>
@@ -13637,10 +13940,10 @@
       <c r="C19" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="14">
         <v>54752</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="12">
         <v>43848</v>
       </c>
     </row>
@@ -13654,10 +13957,10 @@
       <c r="C20" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="14">
         <v>89685</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="12">
         <v>43849</v>
       </c>
     </row>
@@ -13671,10 +13974,10 @@
       <c r="C21" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="14">
         <v>97208</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="12">
         <v>43850</v>
       </c>
     </row>
@@ -13688,10 +13991,10 @@
       <c r="C22" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="14">
         <v>57149</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="12">
         <v>43851</v>
       </c>
     </row>
@@ -13705,10 +14008,10 @@
       <c r="C23" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="14">
         <v>90050</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="12">
         <v>43852</v>
       </c>
     </row>
@@ -13722,10 +14025,10 @@
       <c r="C24" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="14">
         <v>36298</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="12">
         <v>43853</v>
       </c>
     </row>
@@ -13739,10 +14042,10 @@
       <c r="C25" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="14">
         <v>88430</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="12">
         <v>43854</v>
       </c>
     </row>
@@ -13756,10 +14059,10 @@
       <c r="C26" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="14">
         <v>82602</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="12">
         <v>43855</v>
       </c>
     </row>
@@ -13773,10 +14076,10 @@
       <c r="C27" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="14">
         <v>64727</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="12">
         <v>43856</v>
       </c>
     </row>
@@ -13790,10 +14093,10 @@
       <c r="C28" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="14">
         <v>95590</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="12">
         <v>43857</v>
       </c>
     </row>
@@ -13807,10 +14110,10 @@
       <c r="C29" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="14">
         <v>68202</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="12">
         <v>43858</v>
       </c>
     </row>
@@ -13824,10 +14127,10 @@
       <c r="C30" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="14">
         <v>85761</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="12">
         <v>43859</v>
       </c>
     </row>
@@ -13841,10 +14144,10 @@
       <c r="C31" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="14">
         <v>49399</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="12">
         <v>43860</v>
       </c>
     </row>
@@ -13858,10 +14161,10 @@
       <c r="C32" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="14">
         <v>69554</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="12">
         <v>43861</v>
       </c>
     </row>
@@ -13875,10 +14178,10 @@
       <c r="C33" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="14">
         <v>83146</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="12">
         <v>43862</v>
       </c>
     </row>
@@ -13892,10 +14195,10 @@
       <c r="C34" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="14">
         <v>44383</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="12">
         <v>43863</v>
       </c>
     </row>
@@ -13909,10 +14212,10 @@
       <c r="C35" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="14">
         <v>66495</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="12">
         <v>43864</v>
       </c>
     </row>
@@ -13926,10 +14229,10 @@
       <c r="C36" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="14">
         <v>88111</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="12">
         <v>43865</v>
       </c>
     </row>
@@ -13943,10 +14246,10 @@
       <c r="C37" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="14">
         <v>76319</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="12">
         <v>43866</v>
       </c>
     </row>
@@ -13960,10 +14263,10 @@
       <c r="C38" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="14">
         <v>76486</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="12">
         <v>43867</v>
       </c>
     </row>
@@ -13977,10 +14280,10 @@
       <c r="C39" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="14">
         <v>87642</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="12">
         <v>43868</v>
       </c>
     </row>
@@ -13994,10 +14297,10 @@
       <c r="C40" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="14">
         <v>35215</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="12">
         <v>43869</v>
       </c>
     </row>
@@ -14011,10 +14314,10 @@
       <c r="C41" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="14">
         <v>92570</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="12">
         <v>43870</v>
       </c>
     </row>
@@ -14028,10 +14331,10 @@
       <c r="C42" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="14">
         <v>41892</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="12">
         <v>43871</v>
       </c>
     </row>
@@ -14045,10 +14348,10 @@
       <c r="C43" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="14">
         <v>67821</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="12">
         <v>43872</v>
       </c>
     </row>
@@ -14062,10 +14365,10 @@
       <c r="C44" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="14">
         <v>82560</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="12">
         <v>43873</v>
       </c>
     </row>
@@ -14079,10 +14382,10 @@
       <c r="C45" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="14">
         <v>53324</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="12">
         <v>43874</v>
       </c>
     </row>
@@ -14096,10 +14399,10 @@
       <c r="C46" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="14">
         <v>80107</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="12">
         <v>43875</v>
       </c>
     </row>
@@ -14113,10 +14416,10 @@
       <c r="C47" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="14">
         <v>87517</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="12">
         <v>43876</v>
       </c>
     </row>
@@ -14130,10 +14433,10 @@
       <c r="C48" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="14">
         <v>85636</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="12">
         <v>43877</v>
       </c>
     </row>
@@ -14147,10 +14450,10 @@
       <c r="C49" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="14">
         <v>56908</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="12">
         <v>43878</v>
       </c>
     </row>
@@ -14164,10 +14467,10 @@
       <c r="C50" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="14">
         <v>88072</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="12">
         <v>43879</v>
       </c>
     </row>
@@ -14181,10 +14484,10 @@
       <c r="C51" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="14">
         <v>80813</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="12">
         <v>43880</v>
       </c>
     </row>
@@ -14198,10 +14501,10 @@
       <c r="C52" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="14">
         <v>89083</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="12">
         <v>43881</v>
       </c>
     </row>
@@ -14215,10 +14518,10 @@
       <c r="C53" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="14">
         <v>73443</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="12">
         <v>43882</v>
       </c>
     </row>
@@ -14232,10 +14535,10 @@
       <c r="C54" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="14">
         <v>69633</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="12">
         <v>43883</v>
       </c>
     </row>
@@ -14249,10 +14552,10 @@
       <c r="C55" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="14">
         <v>97712</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="12">
         <v>43884</v>
       </c>
     </row>
@@ -14266,10 +14569,10 @@
       <c r="C56" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="14">
         <v>40753</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="12">
         <v>43885</v>
       </c>
     </row>
@@ -14283,10 +14586,10 @@
       <c r="C57" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="14">
         <v>91535</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="12">
         <v>43886</v>
       </c>
     </row>
@@ -14300,10 +14603,10 @@
       <c r="C58" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="14">
         <v>34899</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="12">
         <v>43887</v>
       </c>
     </row>
@@ -14317,10 +14620,10 @@
       <c r="C59" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="14">
         <v>83090</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="12">
         <v>43888</v>
       </c>
     </row>
@@ -14334,10 +14637,10 @@
       <c r="C60" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="14">
         <v>58057</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="12">
         <v>43889</v>
       </c>
     </row>
@@ -14351,10 +14654,10 @@
       <c r="C61" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="14">
         <v>40253</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="12">
         <v>43890</v>
       </c>
     </row>
@@ -14368,10 +14671,10 @@
       <c r="C62" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="14">
         <v>83023</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="12">
         <v>43891</v>
       </c>
     </row>
@@ -14385,10 +14688,10 @@
       <c r="C63" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="14">
         <v>91209</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="12">
         <v>43892</v>
       </c>
     </row>
@@ -14402,10 +14705,10 @@
       <c r="C64" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="14">
         <v>57966</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="12">
         <v>43893</v>
       </c>
     </row>
@@ -14419,10 +14722,10 @@
       <c r="C65" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="14">
         <v>62242</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="12">
         <v>43894</v>
       </c>
     </row>
@@ -14436,10 +14739,10 @@
       <c r="C66" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="14">
         <v>90557</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="12">
         <v>43895</v>
       </c>
     </row>
@@ -14453,10 +14756,10 @@
       <c r="C67" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="14">
         <v>50230</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="12">
         <v>43896</v>
       </c>
     </row>
@@ -14470,10 +14773,10 @@
       <c r="C68" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="14">
         <v>68110</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="12">
         <v>43897</v>
       </c>
     </row>
@@ -14487,10 +14790,10 @@
       <c r="C69" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="14">
         <v>82443</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="12">
         <v>43898</v>
       </c>
     </row>
@@ -14504,10 +14807,10 @@
       <c r="C70" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="14">
         <v>47057</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="12">
         <v>43899</v>
       </c>
     </row>
@@ -14521,10 +14824,10 @@
       <c r="C71" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="14">
         <v>32425</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="12">
         <v>43900</v>
       </c>
     </row>
@@ -14538,10 +14841,10 @@
       <c r="C72" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="14">
         <v>80828</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="12">
         <v>43901</v>
       </c>
     </row>
@@ -14555,10 +14858,10 @@
       <c r="C73" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="14">
         <v>49548</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="12">
         <v>43902</v>
       </c>
     </row>
@@ -14572,10 +14875,10 @@
       <c r="C74" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="14">
         <v>78130</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="12">
         <v>43903</v>
       </c>
     </row>
@@ -14589,10 +14892,10 @@
       <c r="C75" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="14">
         <v>84910</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="12">
         <v>43904</v>
       </c>
     </row>
@@ -14606,10 +14909,10 @@
       <c r="C76" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="14">
         <v>60703</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="12">
         <v>43905</v>
       </c>
     </row>
@@ -14623,10 +14926,10 @@
       <c r="C77" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="14">
         <v>40726</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="12">
         <v>43906</v>
       </c>
     </row>
@@ -14640,10 +14943,10 @@
       <c r="C78" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="14">
         <v>99243</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="12">
         <v>43907</v>
       </c>
     </row>
@@ -14657,10 +14960,10 @@
       <c r="C79" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="14">
         <v>39776</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="12">
         <v>43908</v>
       </c>
     </row>
@@ -14674,10 +14977,10 @@
       <c r="C80" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="14">
         <v>94701</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="12">
         <v>43909</v>
       </c>
     </row>
@@ -14691,10 +14994,10 @@
       <c r="C81" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="14">
         <v>31035</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81" s="12">
         <v>43910</v>
       </c>
     </row>
@@ -14708,10 +15011,10 @@
       <c r="C82" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="14">
         <v>61449</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="12">
         <v>43911</v>
       </c>
     </row>
@@ -14725,10 +15028,10 @@
       <c r="C83" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="14">
         <v>37950</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83" s="12">
         <v>43912</v>
       </c>
     </row>
@@ -14742,10 +15045,10 @@
       <c r="C84" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="14">
         <v>97260</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="12">
         <v>43913</v>
       </c>
     </row>
@@ -14759,10 +15062,10 @@
       <c r="C85" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="14">
         <v>83535</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="12">
         <v>43914</v>
       </c>
     </row>
@@ -14776,10 +15079,10 @@
       <c r="C86" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="14">
         <v>68970</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="12">
         <v>43915</v>
       </c>
     </row>
@@ -14793,10 +15096,10 @@
       <c r="C87" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="14">
         <v>74637</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="12">
         <v>43916</v>
       </c>
     </row>
@@ -14810,10 +15113,10 @@
       <c r="C88" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="14">
         <v>68350</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="12">
         <v>43917</v>
       </c>
     </row>
@@ -14827,10 +15130,10 @@
       <c r="C89" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="14">
         <v>88774</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="12">
         <v>43918</v>
       </c>
     </row>
@@ -14844,10 +15147,10 @@
       <c r="C90" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="14">
         <v>61854</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E90" s="12">
         <v>43919</v>
       </c>
     </row>
@@ -14861,10 +15164,10 @@
       <c r="C91" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="14">
         <v>92596</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E91" s="12">
         <v>43920</v>
       </c>
     </row>
@@ -14878,10 +15181,10 @@
       <c r="C92" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="14">
         <v>43849</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E92" s="12">
         <v>43921</v>
       </c>
     </row>
@@ -14895,10 +15198,10 @@
       <c r="C93" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="14">
         <v>45185</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E93" s="12">
         <v>43922</v>
       </c>
     </row>
@@ -14912,10 +15215,10 @@
       <c r="C94" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="14">
         <v>30608</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="12">
         <v>43923</v>
       </c>
     </row>
@@ -14929,10 +15232,10 @@
       <c r="C95" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="14">
         <v>55236</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="12">
         <v>43924</v>
       </c>
     </row>
@@ -14946,10 +15249,10 @@
       <c r="C96" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="14">
         <v>94519</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="12">
         <v>43925</v>
       </c>
     </row>
@@ -14963,10 +15266,10 @@
       <c r="C97" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="14">
         <v>65864</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="12">
         <v>43926</v>
       </c>
     </row>
@@ -14980,10 +15283,10 @@
       <c r="C98" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="14">
         <v>30336</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="12">
         <v>43927</v>
       </c>
     </row>
@@ -14997,10 +15300,10 @@
       <c r="C99" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="14">
         <v>42351</v>
       </c>
-      <c r="E99" s="16">
+      <c r="E99" s="12">
         <v>43928</v>
       </c>
     </row>
@@ -15014,10 +15317,10 @@
       <c r="C100" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="14">
         <v>76360</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="12">
         <v>43929</v>
       </c>
     </row>
@@ -15031,10 +15334,10 @@
       <c r="C101" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="14">
         <v>50478</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="12">
         <v>43930</v>
       </c>
     </row>
@@ -15048,10 +15351,10 @@
       <c r="C102" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="14">
         <v>39072</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="12">
         <v>43931</v>
       </c>
     </row>
@@ -15065,10 +15368,10 @@
       <c r="C103" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="14">
         <v>76249</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="12">
         <v>43932</v>
       </c>
     </row>
@@ -15082,10 +15385,10 @@
       <c r="C104" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="14">
         <v>50574</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="12">
         <v>43933</v>
       </c>
     </row>
@@ -15099,10 +15402,10 @@
       <c r="C105" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="14">
         <v>71785</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="12">
         <v>43934</v>
       </c>
     </row>
@@ -15116,10 +15419,10 @@
       <c r="C106" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="14">
         <v>87816</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="12">
         <v>43935</v>
       </c>
     </row>
@@ -15133,10 +15436,10 @@
       <c r="C107" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="14">
         <v>59629</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="12">
         <v>43936</v>
       </c>
     </row>
@@ -15150,10 +15453,10 @@
       <c r="C108" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="14">
         <v>77397</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="12">
         <v>43937</v>
       </c>
     </row>
@@ -15167,10 +15470,10 @@
       <c r="C109" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="14">
         <v>76856</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="12">
         <v>43938</v>
       </c>
     </row>
@@ -15184,10 +15487,10 @@
       <c r="C110" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="14">
         <v>97312</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="12">
         <v>43939</v>
       </c>
     </row>
@@ -15201,10 +15504,10 @@
       <c r="C111" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="14">
         <v>77636</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="12">
         <v>43940</v>
       </c>
     </row>
@@ -15218,10 +15521,10 @@
       <c r="C112" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="14">
         <v>77049</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="12">
         <v>43941</v>
       </c>
     </row>
@@ -15235,10 +15538,10 @@
       <c r="C113" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="14">
         <v>30086</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="12">
         <v>43942</v>
       </c>
     </row>
@@ -15252,10 +15555,10 @@
       <c r="C114" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="14">
         <v>57542</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="12">
         <v>43943</v>
       </c>
     </row>
@@ -15269,10 +15572,10 @@
       <c r="C115" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="14">
         <v>40755</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="12">
         <v>43944</v>
       </c>
     </row>
@@ -15286,10 +15589,10 @@
       <c r="C116" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="14">
         <v>54585</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="12">
         <v>43945</v>
       </c>
     </row>
@@ -15303,10 +15606,10 @@
       <c r="C117" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="14">
         <v>40312</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="12">
         <v>43946</v>
       </c>
     </row>
@@ -15320,10 +15623,10 @@
       <c r="C118" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="14">
         <v>97147</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="12">
         <v>43947</v>
       </c>
     </row>
@@ -15337,10 +15640,10 @@
       <c r="C119" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="14">
         <v>30899</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="12">
         <v>43948</v>
       </c>
     </row>
@@ -15354,10 +15657,10 @@
       <c r="C120" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="14">
         <v>68412</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="12">
         <v>43949</v>
       </c>
     </row>
@@ -15371,10 +15674,10 @@
       <c r="C121" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="14">
         <v>70378</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="12">
         <v>43950</v>
       </c>
     </row>
@@ -15388,10 +15691,10 @@
       <c r="C122" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="14">
         <v>75713</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="12">
         <v>43951</v>
       </c>
     </row>
@@ -15405,10 +15708,10 @@
       <c r="C123" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="14">
         <v>59280</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="12">
         <v>43952</v>
       </c>
     </row>
@@ -15422,10 +15725,10 @@
       <c r="C124" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="14">
         <v>93951</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="12">
         <v>43953</v>
       </c>
     </row>
@@ -15439,10 +15742,10 @@
       <c r="C125" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="14">
         <v>60459</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="12">
         <v>43954</v>
       </c>
     </row>
@@ -15456,10 +15759,10 @@
       <c r="C126" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="14">
         <v>89347</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="12">
         <v>43955</v>
       </c>
     </row>
@@ -15473,10 +15776,10 @@
       <c r="C127" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="14">
         <v>82581</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="12">
         <v>43956</v>
       </c>
     </row>
@@ -15490,10 +15793,10 @@
       <c r="C128" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="14">
         <v>33751</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="12">
         <v>43957</v>
       </c>
     </row>
@@ -15507,10 +15810,10 @@
       <c r="C129" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="14">
         <v>36488</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="12">
         <v>43958</v>
       </c>
     </row>
@@ -15524,10 +15827,10 @@
       <c r="C130" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D130" s="14">
         <v>65255</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="12">
         <v>43959</v>
       </c>
     </row>
@@ -15541,10 +15844,10 @@
       <c r="C131" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D131" s="14">
         <v>89281</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="12">
         <v>43960</v>
       </c>
     </row>
@@ -15558,10 +15861,10 @@
       <c r="C132" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D132" s="14">
         <v>62444</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="12">
         <v>43961</v>
       </c>
     </row>
@@ -15575,10 +15878,10 @@
       <c r="C133" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D133" s="14">
         <v>54798</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="12">
         <v>43962</v>
       </c>
     </row>
@@ -15592,10 +15895,10 @@
       <c r="C134" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="14">
         <v>64389</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="12">
         <v>43963</v>
       </c>
     </row>
@@ -15609,10 +15912,10 @@
       <c r="C135" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D135" s="9">
+      <c r="D135" s="14">
         <v>41130</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="12">
         <v>43964</v>
       </c>
     </row>
@@ -15626,10 +15929,10 @@
       <c r="C136" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="14">
         <v>76314</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="12">
         <v>43965</v>
       </c>
     </row>
@@ -15643,10 +15946,10 @@
       <c r="C137" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D137" s="14">
         <v>92961</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="12">
         <v>43966</v>
       </c>
     </row>
@@ -15660,10 +15963,10 @@
       <c r="C138" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="14">
         <v>81927</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="12">
         <v>43967</v>
       </c>
     </row>
@@ -15677,10 +15980,10 @@
       <c r="C139" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D139" s="14">
         <v>78227</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="12">
         <v>43968</v>
       </c>
     </row>
@@ -15694,10 +15997,10 @@
       <c r="C140" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="14">
         <v>58677</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="12">
         <v>43969</v>
       </c>
     </row>
@@ -15711,10 +16014,10 @@
       <c r="C141" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D141" s="9">
+      <c r="D141" s="14">
         <v>33307</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="12">
         <v>43970</v>
       </c>
     </row>
@@ -15728,10 +16031,10 @@
       <c r="C142" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="14">
         <v>86530</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="12">
         <v>43971</v>
       </c>
     </row>
@@ -15745,10 +16048,10 @@
       <c r="C143" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D143" s="9">
+      <c r="D143" s="14">
         <v>53893</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="12">
         <v>43972</v>
       </c>
     </row>
@@ -15762,10 +16065,10 @@
       <c r="C144" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D144" s="14">
         <v>39378</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="12">
         <v>43973</v>
       </c>
     </row>
@@ -15779,10 +16082,10 @@
       <c r="C145" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D145" s="14">
         <v>84402</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="12">
         <v>43974</v>
       </c>
     </row>
@@ -15796,10 +16099,10 @@
       <c r="C146" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D146" s="9">
+      <c r="D146" s="14">
         <v>40895</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="12">
         <v>43975</v>
       </c>
     </row>
@@ -15813,10 +16116,10 @@
       <c r="C147" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D147" s="9">
+      <c r="D147" s="14">
         <v>30479</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="12">
         <v>43976</v>
       </c>
     </row>
@@ -15830,10 +16133,10 @@
       <c r="C148" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D148" s="9">
+      <c r="D148" s="14">
         <v>41508</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="12">
         <v>43977</v>
       </c>
     </row>
@@ -15847,10 +16150,10 @@
       <c r="C149" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D149" s="9">
+      <c r="D149" s="14">
         <v>90433</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="12">
         <v>43978</v>
       </c>
     </row>
@@ -15864,10 +16167,10 @@
       <c r="C150" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D150" s="9">
+      <c r="D150" s="14">
         <v>79230</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="12">
         <v>43979</v>
       </c>
     </row>
@@ -15881,10 +16184,10 @@
       <c r="C151" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D151" s="9">
+      <c r="D151" s="14">
         <v>83173</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="12">
         <v>43980</v>
       </c>
     </row>
@@ -15898,10 +16201,10 @@
       <c r="C152" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D152" s="9">
+      <c r="D152" s="14">
         <v>81963</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="12">
         <v>43981</v>
       </c>
     </row>
@@ -15915,10 +16218,10 @@
       <c r="C153" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D153" s="9">
+      <c r="D153" s="14">
         <v>95475</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="12">
         <v>43982</v>
       </c>
     </row>
@@ -15932,10 +16235,10 @@
       <c r="C154" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D154" s="14">
         <v>83639</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="12">
         <v>43983</v>
       </c>
     </row>
@@ -15949,10 +16252,10 @@
       <c r="C155" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D155" s="9">
+      <c r="D155" s="14">
         <v>74150</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="12">
         <v>43984</v>
       </c>
     </row>
@@ -15966,10 +16269,10 @@
       <c r="C156" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D156" s="9">
+      <c r="D156" s="14">
         <v>75670</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="12">
         <v>43985</v>
       </c>
     </row>
@@ -15983,10 +16286,10 @@
       <c r="C157" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D157" s="9">
+      <c r="D157" s="14">
         <v>51417</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="12">
         <v>43986</v>
       </c>
     </row>
@@ -16000,10 +16303,10 @@
       <c r="C158" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D158" s="9">
+      <c r="D158" s="14">
         <v>83925</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="12">
         <v>43987</v>
       </c>
     </row>
@@ -16017,10 +16320,10 @@
       <c r="C159" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D159" s="9">
+      <c r="D159" s="14">
         <v>54908</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="12">
         <v>43988</v>
       </c>
     </row>
@@ -16034,10 +16337,10 @@
       <c r="C160" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D160" s="9">
+      <c r="D160" s="14">
         <v>89617</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="12">
         <v>43989</v>
       </c>
     </row>
@@ -16051,10 +16354,10 @@
       <c r="C161" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D161" s="9">
+      <c r="D161" s="14">
         <v>70446</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161" s="12">
         <v>43990</v>
       </c>
     </row>
@@ -16068,10 +16371,10 @@
       <c r="C162" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D162" s="9">
+      <c r="D162" s="14">
         <v>66031</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="12">
         <v>43991</v>
       </c>
     </row>
@@ -16085,10 +16388,10 @@
       <c r="C163" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D163" s="9">
+      <c r="D163" s="14">
         <v>91440</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="12">
         <v>43992</v>
       </c>
     </row>
@@ -16102,10 +16405,10 @@
       <c r="C164" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D164" s="9">
+      <c r="D164" s="14">
         <v>32754</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="12">
         <v>43993</v>
       </c>
     </row>
@@ -16119,10 +16422,10 @@
       <c r="C165" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D165" s="9">
+      <c r="D165" s="14">
         <v>45611</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="12">
         <v>43994</v>
       </c>
     </row>
@@ -16136,10 +16439,10 @@
       <c r="C166" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D166" s="9">
+      <c r="D166" s="14">
         <v>96242</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="12">
         <v>43995</v>
       </c>
     </row>
@@ -16153,10 +16456,10 @@
       <c r="C167" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D167" s="9">
+      <c r="D167" s="14">
         <v>92741</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="12">
         <v>43996</v>
       </c>
     </row>
@@ -16170,10 +16473,10 @@
       <c r="C168" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D168" s="9">
+      <c r="D168" s="14">
         <v>72522</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E168" s="12">
         <v>43997</v>
       </c>
     </row>
@@ -16187,10 +16490,10 @@
       <c r="C169" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D169" s="9">
+      <c r="D169" s="14">
         <v>62078</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="12">
         <v>43998</v>
       </c>
     </row>
@@ -16204,10 +16507,10 @@
       <c r="C170" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D170" s="9">
+      <c r="D170" s="14">
         <v>92616</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="12">
         <v>43999</v>
       </c>
     </row>
@@ -16221,10 +16524,10 @@
       <c r="C171" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D171" s="9">
+      <c r="D171" s="14">
         <v>43383</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E171" s="12">
         <v>44000</v>
       </c>
     </row>
@@ -16238,10 +16541,10 @@
       <c r="C172" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D172" s="9">
+      <c r="D172" s="14">
         <v>39121</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="12">
         <v>44001</v>
       </c>
     </row>
@@ -16255,10 +16558,10 @@
       <c r="C173" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D173" s="9">
+      <c r="D173" s="14">
         <v>70153</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E173" s="12">
         <v>44002</v>
       </c>
     </row>
@@ -16272,10 +16575,10 @@
       <c r="C174" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D174" s="9">
+      <c r="D174" s="14">
         <v>76545</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E174" s="12">
         <v>44003</v>
       </c>
     </row>
@@ -16289,10 +16592,10 @@
       <c r="C175" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D175" s="9">
+      <c r="D175" s="14">
         <v>56903</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E175" s="12">
         <v>44004</v>
       </c>
     </row>
@@ -16306,10 +16609,10 @@
       <c r="C176" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D176" s="9">
+      <c r="D176" s="14">
         <v>85358</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="12">
         <v>44005</v>
       </c>
     </row>
@@ -16323,10 +16626,10 @@
       <c r="C177" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D177" s="9">
+      <c r="D177" s="14">
         <v>93831</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="12">
         <v>44006</v>
       </c>
     </row>
@@ -16340,10 +16643,10 @@
       <c r="C178" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D178" s="9">
+      <c r="D178" s="14">
         <v>81047</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="12">
         <v>44007</v>
       </c>
     </row>
@@ -16357,10 +16660,10 @@
       <c r="C179" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D179" s="9">
+      <c r="D179" s="14">
         <v>48862</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="12">
         <v>44008</v>
       </c>
     </row>
@@ -16374,10 +16677,10 @@
       <c r="C180" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D180" s="9">
+      <c r="D180" s="14">
         <v>98927</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="12">
         <v>44009</v>
       </c>
     </row>
@@ -16391,10 +16694,10 @@
       <c r="C181" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D181" s="9">
+      <c r="D181" s="14">
         <v>68059</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="12">
         <v>44010</v>
       </c>
     </row>
@@ -16408,10 +16711,10 @@
       <c r="C182" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D182" s="9">
+      <c r="D182" s="14">
         <v>79939</v>
       </c>
-      <c r="E182" s="7">
+      <c r="E182" s="12">
         <v>44011</v>
       </c>
     </row>
@@ -16425,10 +16728,10 @@
       <c r="C183" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D183" s="9">
+      <c r="D183" s="14">
         <v>47313</v>
       </c>
-      <c r="E183" s="7">
+      <c r="E183" s="12">
         <v>44012</v>
       </c>
     </row>
@@ -16442,10 +16745,10 @@
       <c r="C184" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D184" s="9">
+      <c r="D184" s="14">
         <v>97664</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E184" s="12">
         <v>44013</v>
       </c>
     </row>
@@ -16459,10 +16762,10 @@
       <c r="C185" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D185" s="9">
+      <c r="D185" s="14">
         <v>91049</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E185" s="12">
         <v>44014</v>
       </c>
     </row>
@@ -16476,10 +16779,10 @@
       <c r="C186" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D186" s="9">
+      <c r="D186" s="14">
         <v>30061</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E186" s="12">
         <v>44015</v>
       </c>
     </row>
@@ -16493,10 +16796,10 @@
       <c r="C187" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D187" s="9">
+      <c r="D187" s="14">
         <v>59420</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E187" s="12">
         <v>44016</v>
       </c>
     </row>
@@ -16510,10 +16813,10 @@
       <c r="C188" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D188" s="14">
         <v>74612</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E188" s="12">
         <v>44017</v>
       </c>
     </row>
@@ -16527,10 +16830,10 @@
       <c r="C189" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D189" s="9">
+      <c r="D189" s="14">
         <v>86408</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E189" s="12">
         <v>44018</v>
       </c>
     </row>
@@ -16544,10 +16847,10 @@
       <c r="C190" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D190" s="14">
         <v>54198</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E190" s="12">
         <v>44019</v>
       </c>
     </row>
@@ -16561,10 +16864,10 @@
       <c r="C191" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D191" s="9">
+      <c r="D191" s="14">
         <v>41661</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E191" s="12">
         <v>44020</v>
       </c>
     </row>
@@ -16578,10 +16881,10 @@
       <c r="C192" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D192" s="9">
+      <c r="D192" s="14">
         <v>57879</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E192" s="12">
         <v>44021</v>
       </c>
     </row>
@@ -16595,10 +16898,10 @@
       <c r="C193" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D193" s="9">
+      <c r="D193" s="14">
         <v>81417</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E193" s="12">
         <v>44022</v>
       </c>
     </row>
@@ -16612,10 +16915,10 @@
       <c r="C194" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D194" s="9">
+      <c r="D194" s="14">
         <v>87702</v>
       </c>
-      <c r="E194" s="7">
+      <c r="E194" s="12">
         <v>44023</v>
       </c>
     </row>
@@ -16629,10 +16932,10 @@
       <c r="C195" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D195" s="9">
+      <c r="D195" s="14">
         <v>56427</v>
       </c>
-      <c r="E195" s="7">
+      <c r="E195" s="12">
         <v>44024</v>
       </c>
     </row>
@@ -16646,10 +16949,10 @@
       <c r="C196" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D196" s="9">
+      <c r="D196" s="14">
         <v>30915</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E196" s="12">
         <v>44025</v>
       </c>
     </row>
@@ -16663,10 +16966,10 @@
       <c r="C197" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D197" s="9">
+      <c r="D197" s="14">
         <v>61665</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E197" s="12">
         <v>44026</v>
       </c>
     </row>
@@ -16680,10 +16983,10 @@
       <c r="C198" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D198" s="9">
+      <c r="D198" s="14">
         <v>52389</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E198" s="12">
         <v>44027</v>
       </c>
     </row>
@@ -16697,10 +17000,10 @@
       <c r="C199" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D199" s="9">
+      <c r="D199" s="14">
         <v>31822</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E199" s="12">
         <v>44028</v>
       </c>
     </row>
@@ -16714,10 +17017,10 @@
       <c r="C200" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D200" s="9">
+      <c r="D200" s="14">
         <v>37131</v>
       </c>
-      <c r="E200" s="7">
+      <c r="E200" s="12">
         <v>44029</v>
       </c>
     </row>
@@ -16731,10 +17034,10 @@
       <c r="C201" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D201" s="9">
+      <c r="D201" s="14">
         <v>34738</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E201" s="12">
         <v>44030</v>
       </c>
     </row>
@@ -16748,10 +17051,10 @@
       <c r="C202" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D202" s="9">
+      <c r="D202" s="14">
         <v>56268</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E202" s="12">
         <v>44031</v>
       </c>
     </row>
@@ -16765,10 +17068,10 @@
       <c r="C203" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="14">
         <v>59862</v>
       </c>
-      <c r="E203" s="7">
+      <c r="E203" s="12">
         <v>44032</v>
       </c>
     </row>
@@ -16782,10 +17085,10 @@
       <c r="C204" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="14">
         <v>59155</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E204" s="12">
         <v>44033</v>
       </c>
     </row>
@@ -16799,10 +17102,10 @@
       <c r="C205" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="14">
         <v>40231</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E205" s="12">
         <v>44034</v>
       </c>
     </row>
@@ -16816,10 +17119,10 @@
       <c r="C206" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D206" s="9">
+      <c r="D206" s="14">
         <v>41413</v>
       </c>
-      <c r="E206" s="7">
+      <c r="E206" s="12">
         <v>44035</v>
       </c>
     </row>
@@ -16833,10 +17136,10 @@
       <c r="C207" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="14">
         <v>98712</v>
       </c>
-      <c r="E207" s="7">
+      <c r="E207" s="12">
         <v>44036</v>
       </c>
     </row>
@@ -16850,10 +17153,10 @@
       <c r="C208" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D208" s="9">
+      <c r="D208" s="14">
         <v>41145</v>
       </c>
-      <c r="E208" s="7">
+      <c r="E208" s="12">
         <v>44037</v>
       </c>
     </row>
@@ -16867,10 +17170,10 @@
       <c r="C209" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D209" s="9">
+      <c r="D209" s="14">
         <v>52219</v>
       </c>
-      <c r="E209" s="7">
+      <c r="E209" s="12">
         <v>44038</v>
       </c>
     </row>
@@ -16884,10 +17187,10 @@
       <c r="C210" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D210" s="9">
+      <c r="D210" s="14">
         <v>57143</v>
       </c>
-      <c r="E210" s="7">
+      <c r="E210" s="12">
         <v>44039</v>
       </c>
     </row>
@@ -16901,10 +17204,10 @@
       <c r="C211" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D211" s="9">
+      <c r="D211" s="14">
         <v>74451</v>
       </c>
-      <c r="E211" s="7">
+      <c r="E211" s="12">
         <v>44040</v>
       </c>
     </row>
@@ -16918,10 +17221,10 @@
       <c r="C212" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="14">
         <v>99392</v>
       </c>
-      <c r="E212" s="7">
+      <c r="E212" s="12">
         <v>44041</v>
       </c>
     </row>
@@ -16935,10 +17238,10 @@
       <c r="C213" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D213" s="9">
+      <c r="D213" s="14">
         <v>95072</v>
       </c>
-      <c r="E213" s="7">
+      <c r="E213" s="12">
         <v>44042</v>
       </c>
     </row>
@@ -16952,10 +17255,10 @@
       <c r="C214" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D214" s="9">
+      <c r="D214" s="14">
         <v>38566</v>
       </c>
-      <c r="E214" s="7">
+      <c r="E214" s="12">
         <v>44043</v>
       </c>
     </row>
@@ -16969,10 +17272,10 @@
       <c r="C215" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D215" s="9">
+      <c r="D215" s="14">
         <v>47725</v>
       </c>
-      <c r="E215" s="7">
+      <c r="E215" s="12">
         <v>44044</v>
       </c>
     </row>
@@ -16986,10 +17289,10 @@
       <c r="C216" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="14">
         <v>40077</v>
       </c>
-      <c r="E216" s="7">
+      <c r="E216" s="12">
         <v>44045</v>
       </c>
     </row>
@@ -17003,10 +17306,10 @@
       <c r="C217" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="14">
         <v>81234</v>
       </c>
-      <c r="E217" s="7">
+      <c r="E217" s="12">
         <v>44046</v>
       </c>
     </row>
@@ -17020,10 +17323,10 @@
       <c r="C218" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D218" s="9">
+      <c r="D218" s="14">
         <v>68579</v>
       </c>
-      <c r="E218" s="7">
+      <c r="E218" s="12">
         <v>44047</v>
       </c>
     </row>
@@ -17037,10 +17340,10 @@
       <c r="C219" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D219" s="9">
+      <c r="D219" s="14">
         <v>71204</v>
       </c>
-      <c r="E219" s="7">
+      <c r="E219" s="12">
         <v>44048</v>
       </c>
     </row>
@@ -17054,10 +17357,10 @@
       <c r="C220" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D220" s="9">
+      <c r="D220" s="14">
         <v>65102</v>
       </c>
-      <c r="E220" s="7">
+      <c r="E220" s="12">
         <v>44049</v>
       </c>
     </row>
@@ -17071,10 +17374,10 @@
       <c r="C221" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="14">
         <v>62328</v>
       </c>
-      <c r="E221" s="7">
+      <c r="E221" s="12">
         <v>44050</v>
       </c>
     </row>
@@ -17088,10 +17391,10 @@
       <c r="C222" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D222" s="9">
+      <c r="D222" s="14">
         <v>86105</v>
       </c>
-      <c r="E222" s="7">
+      <c r="E222" s="12">
         <v>44051</v>
       </c>
     </row>
@@ -17105,10 +17408,10 @@
       <c r="C223" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="14">
         <v>63323</v>
       </c>
-      <c r="E223" s="7">
+      <c r="E223" s="12">
         <v>44052</v>
       </c>
     </row>
@@ -17122,10 +17425,10 @@
       <c r="C224" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D224" s="9">
+      <c r="D224" s="14">
         <v>47637</v>
       </c>
-      <c r="E224" s="7">
+      <c r="E224" s="12">
         <v>44053</v>
       </c>
     </row>
@@ -17139,10 +17442,10 @@
       <c r="C225" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D225" s="9">
+      <c r="D225" s="14">
         <v>67436</v>
       </c>
-      <c r="E225" s="7">
+      <c r="E225" s="12">
         <v>44054</v>
       </c>
     </row>
@@ -17156,10 +17459,10 @@
       <c r="C226" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D226" s="9">
+      <c r="D226" s="14">
         <v>43635</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E226" s="12">
         <v>44055</v>
       </c>
     </row>
@@ -17173,10 +17476,10 @@
       <c r="C227" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D227" s="9">
+      <c r="D227" s="14">
         <v>36158</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E227" s="12">
         <v>44056</v>
       </c>
     </row>
@@ -17190,10 +17493,10 @@
       <c r="C228" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D228" s="9">
+      <c r="D228" s="14">
         <v>74996</v>
       </c>
-      <c r="E228" s="7">
+      <c r="E228" s="12">
         <v>44057</v>
       </c>
     </row>
@@ -17207,10 +17510,10 @@
       <c r="C229" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D229" s="9">
+      <c r="D229" s="14">
         <v>72159</v>
       </c>
-      <c r="E229" s="7">
+      <c r="E229" s="12">
         <v>44058</v>
       </c>
     </row>
@@ -17224,10 +17527,10 @@
       <c r="C230" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D230" s="9">
+      <c r="D230" s="14">
         <v>52243</v>
       </c>
-      <c r="E230" s="7">
+      <c r="E230" s="12">
         <v>44059</v>
       </c>
     </row>
@@ -17241,10 +17544,10 @@
       <c r="C231" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D231" s="9">
+      <c r="D231" s="14">
         <v>57281</v>
       </c>
-      <c r="E231" s="7">
+      <c r="E231" s="12">
         <v>44060</v>
       </c>
     </row>
@@ -17258,10 +17561,10 @@
       <c r="C232" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D232" s="9">
+      <c r="D232" s="14">
         <v>60009</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E232" s="12">
         <v>44061</v>
       </c>
     </row>
@@ -17275,10 +17578,10 @@
       <c r="C233" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D233" s="9">
+      <c r="D233" s="14">
         <v>88475</v>
       </c>
-      <c r="E233" s="7">
+      <c r="E233" s="12">
         <v>44062</v>
       </c>
     </row>
@@ -17292,10 +17595,10 @@
       <c r="C234" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D234" s="9">
+      <c r="D234" s="14">
         <v>40616</v>
       </c>
-      <c r="E234" s="7">
+      <c r="E234" s="12">
         <v>44063</v>
       </c>
     </row>
@@ -17309,10 +17612,10 @@
       <c r="C235" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D235" s="9">
+      <c r="D235" s="14">
         <v>39883</v>
       </c>
-      <c r="E235" s="7">
+      <c r="E235" s="12">
         <v>44064</v>
       </c>
     </row>
@@ -17326,10 +17629,10 @@
       <c r="C236" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D236" s="9">
+      <c r="D236" s="14">
         <v>68791</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E236" s="12">
         <v>44065</v>
       </c>
     </row>
@@ -17343,10 +17646,10 @@
       <c r="C237" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D237" s="9">
+      <c r="D237" s="14">
         <v>60282</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E237" s="12">
         <v>44066</v>
       </c>
     </row>
@@ -17360,10 +17663,10 @@
       <c r="C238" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D238" s="9">
+      <c r="D238" s="14">
         <v>42214</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E238" s="12">
         <v>44067</v>
       </c>
     </row>
@@ -17377,10 +17680,10 @@
       <c r="C239" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D239" s="9">
+      <c r="D239" s="14">
         <v>86248</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E239" s="12">
         <v>44068</v>
       </c>
     </row>
@@ -17394,10 +17697,10 @@
       <c r="C240" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D240" s="9">
+      <c r="D240" s="14">
         <v>35745</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E240" s="12">
         <v>44069</v>
       </c>
     </row>
@@ -17411,10 +17714,10 @@
       <c r="C241" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D241" s="9">
+      <c r="D241" s="14">
         <v>46724</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E241" s="12">
         <v>44070</v>
       </c>
     </row>
@@ -17428,10 +17731,10 @@
       <c r="C242" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D242" s="9">
+      <c r="D242" s="14">
         <v>84053</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E242" s="12">
         <v>44071</v>
       </c>
     </row>
@@ -17445,10 +17748,10 @@
       <c r="C243" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D243" s="9">
+      <c r="D243" s="14">
         <v>32621</v>
       </c>
-      <c r="E243" s="7">
+      <c r="E243" s="12">
         <v>44072</v>
       </c>
     </row>
@@ -17462,10 +17765,10 @@
       <c r="C244" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D244" s="9">
+      <c r="D244" s="14">
         <v>30353</v>
       </c>
-      <c r="E244" s="7">
+      <c r="E244" s="12">
         <v>44073</v>
       </c>
     </row>
@@ -17479,10 +17782,10 @@
       <c r="C245" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D245" s="9">
+      <c r="D245" s="14">
         <v>56335</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E245" s="12">
         <v>44074</v>
       </c>
     </row>
@@ -17496,10 +17799,10 @@
       <c r="C246" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D246" s="9">
+      <c r="D246" s="14">
         <v>33612</v>
       </c>
-      <c r="E246" s="7">
+      <c r="E246" s="12">
         <v>44075</v>
       </c>
     </row>
@@ -17513,10 +17816,10 @@
       <c r="C247" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D247" s="9">
+      <c r="D247" s="14">
         <v>41500</v>
       </c>
-      <c r="E247" s="7">
+      <c r="E247" s="12">
         <v>44076</v>
       </c>
     </row>
@@ -17530,10 +17833,10 @@
       <c r="C248" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D248" s="9">
+      <c r="D248" s="14">
         <v>64052</v>
       </c>
-      <c r="E248" s="7">
+      <c r="E248" s="12">
         <v>44077</v>
       </c>
     </row>
@@ -17547,10 +17850,10 @@
       <c r="C249" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D249" s="9">
+      <c r="D249" s="14">
         <v>47862</v>
       </c>
-      <c r="E249" s="7">
+      <c r="E249" s="12">
         <v>44078</v>
       </c>
     </row>
@@ -17564,10 +17867,10 @@
       <c r="C250" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D250" s="9">
+      <c r="D250" s="14">
         <v>44595</v>
       </c>
-      <c r="E250" s="7">
+      <c r="E250" s="12">
         <v>44079</v>
       </c>
     </row>
@@ -17581,10 +17884,10 @@
       <c r="C251" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D251" s="9">
+      <c r="D251" s="14">
         <v>56287</v>
       </c>
-      <c r="E251" s="7">
+      <c r="E251" s="12">
         <v>44080</v>
       </c>
     </row>
@@ -17598,10 +17901,10 @@
       <c r="C252" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D252" s="9">
+      <c r="D252" s="14">
         <v>82174</v>
       </c>
-      <c r="E252" s="7">
+      <c r="E252" s="12">
         <v>44081</v>
       </c>
     </row>
@@ -17615,10 +17918,10 @@
       <c r="C253" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D253" s="9">
+      <c r="D253" s="14">
         <v>85100</v>
       </c>
-      <c r="E253" s="7">
+      <c r="E253" s="12">
         <v>44082</v>
       </c>
     </row>
@@ -17632,10 +17935,10 @@
       <c r="C254" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D254" s="9">
+      <c r="D254" s="14">
         <v>70406</v>
       </c>
-      <c r="E254" s="7">
+      <c r="E254" s="12">
         <v>44083</v>
       </c>
     </row>
@@ -17649,10 +17952,10 @@
       <c r="C255" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D255" s="9">
+      <c r="D255" s="14">
         <v>75693</v>
       </c>
-      <c r="E255" s="7">
+      <c r="E255" s="12">
         <v>44084</v>
       </c>
     </row>
@@ -17666,10 +17969,10 @@
       <c r="C256" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D256" s="9">
+      <c r="D256" s="14">
         <v>74029</v>
       </c>
-      <c r="E256" s="7">
+      <c r="E256" s="12">
         <v>44085</v>
       </c>
     </row>
@@ -17683,10 +17986,10 @@
       <c r="C257" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D257" s="9">
+      <c r="D257" s="14">
         <v>53833</v>
       </c>
-      <c r="E257" s="7">
+      <c r="E257" s="12">
         <v>44086</v>
       </c>
     </row>
@@ -17700,10 +18003,10 @@
       <c r="C258" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D258" s="9">
+      <c r="D258" s="14">
         <v>97541</v>
       </c>
-      <c r="E258" s="7">
+      <c r="E258" s="12">
         <v>44087</v>
       </c>
     </row>
@@ -17717,10 +18020,10 @@
       <c r="C259" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D259" s="9">
+      <c r="D259" s="14">
         <v>89777</v>
       </c>
-      <c r="E259" s="7">
+      <c r="E259" s="12">
         <v>44088</v>
       </c>
     </row>
@@ -17734,10 +18037,10 @@
       <c r="C260" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D260" s="9">
+      <c r="D260" s="14">
         <v>99164</v>
       </c>
-      <c r="E260" s="7">
+      <c r="E260" s="12">
         <v>44089</v>
       </c>
     </row>
@@ -17751,10 +18054,10 @@
       <c r="C261" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D261" s="9">
+      <c r="D261" s="14">
         <v>33232</v>
       </c>
-      <c r="E261" s="7">
+      <c r="E261" s="12">
         <v>44090</v>
       </c>
     </row>
@@ -17768,10 +18071,10 @@
       <c r="C262" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D262" s="9">
+      <c r="D262" s="14">
         <v>53997</v>
       </c>
-      <c r="E262" s="7">
+      <c r="E262" s="12">
         <v>44091</v>
       </c>
     </row>
@@ -17785,10 +18088,10 @@
       <c r="C263" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D263" s="9">
+      <c r="D263" s="14">
         <v>38408</v>
       </c>
-      <c r="E263" s="7">
+      <c r="E263" s="12">
         <v>44092</v>
       </c>
     </row>
@@ -17802,10 +18105,10 @@
       <c r="C264" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D264" s="9">
+      <c r="D264" s="14">
         <v>97636</v>
       </c>
-      <c r="E264" s="7">
+      <c r="E264" s="12">
         <v>44093</v>
       </c>
     </row>
@@ -17819,10 +18122,10 @@
       <c r="C265" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D265" s="9">
+      <c r="D265" s="14">
         <v>69264</v>
       </c>
-      <c r="E265" s="7">
+      <c r="E265" s="12">
         <v>44094</v>
       </c>
     </row>
@@ -17836,10 +18139,10 @@
       <c r="C266" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D266" s="9">
+      <c r="D266" s="14">
         <v>63330</v>
       </c>
-      <c r="E266" s="7">
+      <c r="E266" s="12">
         <v>44095</v>
       </c>
     </row>
@@ -17853,10 +18156,10 @@
       <c r="C267" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D267" s="9">
+      <c r="D267" s="14">
         <v>40979</v>
       </c>
-      <c r="E267" s="7">
+      <c r="E267" s="12">
         <v>44096</v>
       </c>
     </row>
@@ -17870,10 +18173,10 @@
       <c r="C268" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D268" s="9">
+      <c r="D268" s="14">
         <v>68917</v>
       </c>
-      <c r="E268" s="7">
+      <c r="E268" s="12">
         <v>44097</v>
       </c>
     </row>
@@ -17887,10 +18190,10 @@
       <c r="C269" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D269" s="9">
+      <c r="D269" s="14">
         <v>60809</v>
       </c>
-      <c r="E269" s="7">
+      <c r="E269" s="12">
         <v>44098</v>
       </c>
     </row>
@@ -17904,10 +18207,10 @@
       <c r="C270" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D270" s="9">
+      <c r="D270" s="14">
         <v>84193</v>
       </c>
-      <c r="E270" s="7">
+      <c r="E270" s="12">
         <v>44099</v>
       </c>
     </row>
@@ -17921,10 +18224,10 @@
       <c r="C271" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D271" s="9">
+      <c r="D271" s="14">
         <v>81895</v>
       </c>
-      <c r="E271" s="7">
+      <c r="E271" s="12">
         <v>44100</v>
       </c>
     </row>
@@ -17938,10 +18241,10 @@
       <c r="C272" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D272" s="9">
+      <c r="D272" s="14">
         <v>61673</v>
       </c>
-      <c r="E272" s="7">
+      <c r="E272" s="12">
         <v>44101</v>
       </c>
     </row>
@@ -17955,10 +18258,10 @@
       <c r="C273" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D273" s="9">
+      <c r="D273" s="14">
         <v>58371</v>
       </c>
-      <c r="E273" s="7">
+      <c r="E273" s="12">
         <v>44102</v>
       </c>
     </row>
@@ -17972,10 +18275,10 @@
       <c r="C274" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D274" s="9">
+      <c r="D274" s="14">
         <v>92957</v>
       </c>
-      <c r="E274" s="7">
+      <c r="E274" s="12">
         <v>44103</v>
       </c>
     </row>
@@ -17989,10 +18292,10 @@
       <c r="C275" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D275" s="9">
+      <c r="D275" s="14">
         <v>58623</v>
       </c>
-      <c r="E275" s="7">
+      <c r="E275" s="12">
         <v>44104</v>
       </c>
     </row>
@@ -18006,10 +18309,10 @@
       <c r="C276" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D276" s="9">
+      <c r="D276" s="14">
         <v>86564</v>
       </c>
-      <c r="E276" s="7">
+      <c r="E276" s="12">
         <v>44105</v>
       </c>
     </row>
@@ -18023,10 +18326,10 @@
       <c r="C277" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D277" s="9">
+      <c r="D277" s="14">
         <v>40427</v>
       </c>
-      <c r="E277" s="7">
+      <c r="E277" s="12">
         <v>44106</v>
       </c>
     </row>
@@ -18040,10 +18343,10 @@
       <c r="C278" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D278" s="9">
+      <c r="D278" s="14">
         <v>50440</v>
       </c>
-      <c r="E278" s="7">
+      <c r="E278" s="12">
         <v>44107</v>
       </c>
     </row>
@@ -18057,10 +18360,10 @@
       <c r="C279" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D279" s="9">
+      <c r="D279" s="14">
         <v>61266</v>
       </c>
-      <c r="E279" s="7">
+      <c r="E279" s="12">
         <v>44108</v>
       </c>
     </row>
@@ -18074,10 +18377,10 @@
       <c r="C280" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D280" s="9">
+      <c r="D280" s="14">
         <v>56512</v>
       </c>
-      <c r="E280" s="7">
+      <c r="E280" s="12">
         <v>44109</v>
       </c>
     </row>
@@ -18091,10 +18394,10 @@
       <c r="C281" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D281" s="9">
+      <c r="D281" s="14">
         <v>34722</v>
       </c>
-      <c r="E281" s="7">
+      <c r="E281" s="12">
         <v>44110</v>
       </c>
     </row>
@@ -18108,10 +18411,10 @@
       <c r="C282" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D282" s="9">
+      <c r="D282" s="14">
         <v>38253</v>
       </c>
-      <c r="E282" s="7">
+      <c r="E282" s="12">
         <v>44111</v>
       </c>
     </row>
@@ -18125,10 +18428,10 @@
       <c r="C283" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D283" s="9">
+      <c r="D283" s="14">
         <v>40807</v>
       </c>
-      <c r="E283" s="7">
+      <c r="E283" s="12">
         <v>44112</v>
       </c>
     </row>
@@ -18142,10 +18445,10 @@
       <c r="C284" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D284" s="9">
+      <c r="D284" s="14">
         <v>57130</v>
       </c>
-      <c r="E284" s="7">
+      <c r="E284" s="12">
         <v>44113</v>
       </c>
     </row>
@@ -18159,10 +18462,10 @@
       <c r="C285" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D285" s="9">
+      <c r="D285" s="14">
         <v>74930</v>
       </c>
-      <c r="E285" s="7">
+      <c r="E285" s="12">
         <v>44114</v>
       </c>
     </row>
@@ -18176,10 +18479,10 @@
       <c r="C286" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D286" s="9">
+      <c r="D286" s="14">
         <v>46986</v>
       </c>
-      <c r="E286" s="7">
+      <c r="E286" s="12">
         <v>44115</v>
       </c>
     </row>
@@ -18193,10 +18496,10 @@
       <c r="C287" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D287" s="9">
+      <c r="D287" s="14">
         <v>85685</v>
       </c>
-      <c r="E287" s="7">
+      <c r="E287" s="12">
         <v>44116</v>
       </c>
     </row>
@@ -18210,10 +18513,10 @@
       <c r="C288" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D288" s="9">
+      <c r="D288" s="14">
         <v>93572</v>
       </c>
-      <c r="E288" s="7">
+      <c r="E288" s="12">
         <v>44117</v>
       </c>
     </row>
@@ -18227,10 +18530,10 @@
       <c r="C289" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D289" s="9">
+      <c r="D289" s="14">
         <v>85116</v>
       </c>
-      <c r="E289" s="7">
+      <c r="E289" s="12">
         <v>44118</v>
       </c>
     </row>
@@ -18244,10 +18547,10 @@
       <c r="C290" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D290" s="9">
+      <c r="D290" s="14">
         <v>52722</v>
       </c>
-      <c r="E290" s="7">
+      <c r="E290" s="12">
         <v>44119</v>
       </c>
     </row>
@@ -18261,10 +18564,10 @@
       <c r="C291" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D291" s="9">
+      <c r="D291" s="14">
         <v>84936</v>
       </c>
-      <c r="E291" s="7">
+      <c r="E291" s="12">
         <v>44120</v>
       </c>
     </row>
@@ -18278,10 +18581,10 @@
       <c r="C292" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D292" s="9">
+      <c r="D292" s="14">
         <v>73741</v>
       </c>
-      <c r="E292" s="7">
+      <c r="E292" s="12">
         <v>44121</v>
       </c>
     </row>
@@ -18295,10 +18598,10 @@
       <c r="C293" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D293" s="9">
+      <c r="D293" s="14">
         <v>55028</v>
       </c>
-      <c r="E293" s="7">
+      <c r="E293" s="12">
         <v>44122</v>
       </c>
     </row>
@@ -18312,10 +18615,10 @@
       <c r="C294" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D294" s="9">
+      <c r="D294" s="14">
         <v>83584</v>
       </c>
-      <c r="E294" s="7">
+      <c r="E294" s="12">
         <v>44123</v>
       </c>
     </row>
@@ -18329,10 +18632,10 @@
       <c r="C295" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D295" s="9">
+      <c r="D295" s="14">
         <v>53127</v>
       </c>
-      <c r="E295" s="7">
+      <c r="E295" s="12">
         <v>44124</v>
       </c>
     </row>
@@ -18346,10 +18649,10 @@
       <c r="C296" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D296" s="9">
+      <c r="D296" s="14">
         <v>32007</v>
       </c>
-      <c r="E296" s="7">
+      <c r="E296" s="12">
         <v>44125</v>
       </c>
     </row>
@@ -18363,10 +18666,10 @@
       <c r="C297" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D297" s="9">
+      <c r="D297" s="14">
         <v>37853</v>
       </c>
-      <c r="E297" s="7">
+      <c r="E297" s="12">
         <v>44126</v>
       </c>
     </row>
@@ -18380,10 +18683,10 @@
       <c r="C298" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D298" s="9">
+      <c r="D298" s="14">
         <v>62039</v>
       </c>
-      <c r="E298" s="7">
+      <c r="E298" s="12">
         <v>44127</v>
       </c>
     </row>
@@ -18397,10 +18700,10 @@
       <c r="C299" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D299" s="9">
+      <c r="D299" s="14">
         <v>85293</v>
       </c>
-      <c r="E299" s="7">
+      <c r="E299" s="12">
         <v>44128</v>
       </c>
     </row>
@@ -18414,10 +18717,10 @@
       <c r="C300" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D300" s="9">
+      <c r="D300" s="14">
         <v>79270</v>
       </c>
-      <c r="E300" s="7">
+      <c r="E300" s="12">
         <v>44129</v>
       </c>
     </row>
@@ -18431,10 +18734,10 @@
       <c r="C301" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D301" s="9">
+      <c r="D301" s="14">
         <v>32957</v>
       </c>
-      <c r="E301" s="7">
+      <c r="E301" s="12">
         <v>44130</v>
       </c>
     </row>
@@ -18448,10 +18751,10 @@
       <c r="C302" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D302" s="9">
+      <c r="D302" s="14">
         <v>58931</v>
       </c>
-      <c r="E302" s="7">
+      <c r="E302" s="12">
         <v>44131</v>
       </c>
     </row>
@@ -18465,10 +18768,10 @@
       <c r="C303" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D303" s="9">
+      <c r="D303" s="14">
         <v>86055</v>
       </c>
-      <c r="E303" s="7">
+      <c r="E303" s="12">
         <v>44132</v>
       </c>
     </row>
@@ -18482,10 +18785,10 @@
       <c r="C304" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D304" s="9">
+      <c r="D304" s="14">
         <v>82776</v>
       </c>
-      <c r="E304" s="7">
+      <c r="E304" s="12">
         <v>44133</v>
       </c>
     </row>
@@ -18499,10 +18802,10 @@
       <c r="C305" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D305" s="9">
+      <c r="D305" s="14">
         <v>58946</v>
       </c>
-      <c r="E305" s="7">
+      <c r="E305" s="12">
         <v>44134</v>
       </c>
     </row>
@@ -18516,10 +18819,10 @@
       <c r="C306" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D306" s="9">
+      <c r="D306" s="14">
         <v>96601</v>
       </c>
-      <c r="E306" s="7">
+      <c r="E306" s="12">
         <v>44135</v>
       </c>
     </row>
@@ -18533,10 +18836,10 @@
       <c r="C307" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D307" s="9">
+      <c r="D307" s="14">
         <v>61353</v>
       </c>
-      <c r="E307" s="7">
+      <c r="E307" s="12">
         <v>44136</v>
       </c>
     </row>
@@ -18550,10 +18853,10 @@
       <c r="C308" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D308" s="9">
+      <c r="D308" s="14">
         <v>75962</v>
       </c>
-      <c r="E308" s="7">
+      <c r="E308" s="12">
         <v>44137</v>
       </c>
     </row>
@@ -18567,10 +18870,10 @@
       <c r="C309" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D309" s="9">
+      <c r="D309" s="14">
         <v>54569</v>
       </c>
-      <c r="E309" s="7">
+      <c r="E309" s="12">
         <v>44138</v>
       </c>
     </row>
@@ -18584,10 +18887,10 @@
       <c r="C310" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D310" s="9">
+      <c r="D310" s="14">
         <v>53173</v>
       </c>
-      <c r="E310" s="7">
+      <c r="E310" s="12">
         <v>44139</v>
       </c>
     </row>
@@ -18601,10 +18904,10 @@
       <c r="C311" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D311" s="9">
+      <c r="D311" s="14">
         <v>90312</v>
       </c>
-      <c r="E311" s="7">
+      <c r="E311" s="12">
         <v>44140</v>
       </c>
     </row>
@@ -18618,10 +18921,10 @@
       <c r="C312" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D312" s="9">
+      <c r="D312" s="14">
         <v>85906</v>
       </c>
-      <c r="E312" s="7">
+      <c r="E312" s="12">
         <v>44141</v>
       </c>
     </row>
@@ -18635,10 +18938,10 @@
       <c r="C313" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D313" s="9">
+      <c r="D313" s="14">
         <v>45533</v>
       </c>
-      <c r="E313" s="7">
+      <c r="E313" s="12">
         <v>44142</v>
       </c>
     </row>
@@ -18652,10 +18955,10 @@
       <c r="C314" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D314" s="9">
+      <c r="D314" s="14">
         <v>99343</v>
       </c>
-      <c r="E314" s="7">
+      <c r="E314" s="12">
         <v>44143</v>
       </c>
     </row>
@@ -18669,10 +18972,10 @@
       <c r="C315" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D315" s="9">
+      <c r="D315" s="14">
         <v>56359</v>
       </c>
-      <c r="E315" s="7">
+      <c r="E315" s="12">
         <v>44144</v>
       </c>
     </row>
@@ -18686,10 +18989,10 @@
       <c r="C316" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D316" s="9">
+      <c r="D316" s="14">
         <v>36682</v>
       </c>
-      <c r="E316" s="7">
+      <c r="E316" s="12">
         <v>44145</v>
       </c>
     </row>
@@ -18703,10 +19006,10 @@
       <c r="C317" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D317" s="9">
+      <c r="D317" s="14">
         <v>60291</v>
       </c>
-      <c r="E317" s="7">
+      <c r="E317" s="12">
         <v>44146</v>
       </c>
     </row>
@@ -18720,10 +19023,10 @@
       <c r="C318" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D318" s="9">
+      <c r="D318" s="14">
         <v>39536</v>
       </c>
-      <c r="E318" s="7">
+      <c r="E318" s="12">
         <v>44147</v>
       </c>
     </row>
@@ -18737,10 +19040,10 @@
       <c r="C319" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D319" s="9">
+      <c r="D319" s="14">
         <v>92348</v>
       </c>
-      <c r="E319" s="7">
+      <c r="E319" s="12">
         <v>44148</v>
       </c>
     </row>
@@ -18754,10 +19057,10 @@
       <c r="C320" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D320" s="9">
+      <c r="D320" s="14">
         <v>88982</v>
       </c>
-      <c r="E320" s="7">
+      <c r="E320" s="12">
         <v>44149</v>
       </c>
     </row>
@@ -18771,10 +19074,10 @@
       <c r="C321" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D321" s="9">
+      <c r="D321" s="14">
         <v>61866</v>
       </c>
-      <c r="E321" s="7">
+      <c r="E321" s="12">
         <v>44150</v>
       </c>
     </row>
@@ -18788,10 +19091,10 @@
       <c r="C322" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D322" s="9">
+      <c r="D322" s="14">
         <v>61657</v>
       </c>
-      <c r="E322" s="7">
+      <c r="E322" s="12">
         <v>44151</v>
       </c>
     </row>
@@ -18805,10 +19108,10 @@
       <c r="C323" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D323" s="9">
+      <c r="D323" s="14">
         <v>88608</v>
       </c>
-      <c r="E323" s="7">
+      <c r="E323" s="12">
         <v>44152</v>
       </c>
     </row>
@@ -18822,10 +19125,10 @@
       <c r="C324" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D324" s="9">
+      <c r="D324" s="14">
         <v>69391</v>
       </c>
-      <c r="E324" s="7">
+      <c r="E324" s="12">
         <v>44153</v>
       </c>
     </row>
@@ -18839,10 +19142,10 @@
       <c r="C325" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D325" s="9">
+      <c r="D325" s="14">
         <v>52225</v>
       </c>
-      <c r="E325" s="7">
+      <c r="E325" s="12">
         <v>44154</v>
       </c>
     </row>
@@ -18856,10 +19159,10 @@
       <c r="C326" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D326" s="9">
+      <c r="D326" s="14">
         <v>45384</v>
       </c>
-      <c r="E326" s="7">
+      <c r="E326" s="12">
         <v>44155</v>
       </c>
     </row>
@@ -18873,10 +19176,10 @@
       <c r="C327" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D327" s="9">
+      <c r="D327" s="14">
         <v>62550</v>
       </c>
-      <c r="E327" s="7">
+      <c r="E327" s="12">
         <v>44156</v>
       </c>
     </row>
@@ -18890,10 +19193,10 @@
       <c r="C328" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D328" s="9">
+      <c r="D328" s="14">
         <v>73393</v>
       </c>
-      <c r="E328" s="7">
+      <c r="E328" s="12">
         <v>44157</v>
       </c>
     </row>
@@ -18907,10 +19210,10 @@
       <c r="C329" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D329" s="9">
+      <c r="D329" s="14">
         <v>78593</v>
       </c>
-      <c r="E329" s="7">
+      <c r="E329" s="12">
         <v>44158</v>
       </c>
     </row>
@@ -18924,10 +19227,10 @@
       <c r="C330" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D330" s="9">
+      <c r="D330" s="14">
         <v>53704</v>
       </c>
-      <c r="E330" s="7">
+      <c r="E330" s="12">
         <v>44159</v>
       </c>
     </row>
@@ -18941,10 +19244,10 @@
       <c r="C331" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D331" s="9">
+      <c r="D331" s="14">
         <v>58125</v>
       </c>
-      <c r="E331" s="7">
+      <c r="E331" s="12">
         <v>44160</v>
       </c>
     </row>
@@ -18958,10 +19261,10 @@
       <c r="C332" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D332" s="9">
+      <c r="D332" s="14">
         <v>58988</v>
       </c>
-      <c r="E332" s="7">
+      <c r="E332" s="12">
         <v>44161</v>
       </c>
     </row>
@@ -18975,10 +19278,10 @@
       <c r="C333" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D333" s="9">
+      <c r="D333" s="14">
         <v>56109</v>
       </c>
-      <c r="E333" s="7">
+      <c r="E333" s="12">
         <v>44162</v>
       </c>
     </row>
@@ -18992,10 +19295,10 @@
       <c r="C334" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D334" s="9">
+      <c r="D334" s="14">
         <v>75357</v>
       </c>
-      <c r="E334" s="7">
+      <c r="E334" s="12">
         <v>44163</v>
       </c>
     </row>
@@ -19009,10 +19312,10 @@
       <c r="C335" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D335" s="9">
+      <c r="D335" s="14">
         <v>72922</v>
       </c>
-      <c r="E335" s="7">
+      <c r="E335" s="12">
         <v>44164</v>
       </c>
     </row>
@@ -19026,10 +19329,10 @@
       <c r="C336" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D336" s="9">
+      <c r="D336" s="14">
         <v>35857</v>
       </c>
-      <c r="E336" s="7">
+      <c r="E336" s="12">
         <v>44165</v>
       </c>
     </row>
@@ -19043,10 +19346,10 @@
       <c r="C337" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D337" s="9">
+      <c r="D337" s="14">
         <v>62935</v>
       </c>
-      <c r="E337" s="7">
+      <c r="E337" s="12">
         <v>44166</v>
       </c>
     </row>
@@ -19060,10 +19363,10 @@
       <c r="C338" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D338" s="9">
+      <c r="D338" s="14">
         <v>48788</v>
       </c>
-      <c r="E338" s="7">
+      <c r="E338" s="12">
         <v>44167</v>
       </c>
     </row>
@@ -19077,10 +19380,10 @@
       <c r="C339" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D339" s="9">
+      <c r="D339" s="14">
         <v>95814</v>
       </c>
-      <c r="E339" s="7">
+      <c r="E339" s="12">
         <v>44168</v>
       </c>
     </row>
@@ -19094,10 +19397,10 @@
       <c r="C340" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D340" s="9">
+      <c r="D340" s="14">
         <v>92881</v>
       </c>
-      <c r="E340" s="7">
+      <c r="E340" s="12">
         <v>44169</v>
       </c>
     </row>
@@ -19111,10 +19414,10 @@
       <c r="C341" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D341" s="9">
+      <c r="D341" s="14">
         <v>70734</v>
       </c>
-      <c r="E341" s="7">
+      <c r="E341" s="12">
         <v>44170</v>
       </c>
     </row>
@@ -19128,10 +19431,10 @@
       <c r="C342" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D342" s="9">
+      <c r="D342" s="14">
         <v>72524</v>
       </c>
-      <c r="E342" s="7">
+      <c r="E342" s="12">
         <v>44171</v>
       </c>
     </row>
@@ -19145,10 +19448,10 @@
       <c r="C343" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D343" s="9">
+      <c r="D343" s="14">
         <v>91078</v>
       </c>
-      <c r="E343" s="7">
+      <c r="E343" s="12">
         <v>44172</v>
       </c>
     </row>
@@ -19162,10 +19465,10 @@
       <c r="C344" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D344" s="9">
+      <c r="D344" s="14">
         <v>97383</v>
       </c>
-      <c r="E344" s="7">
+      <c r="E344" s="12">
         <v>44173</v>
       </c>
     </row>
@@ -19179,10 +19482,10 @@
       <c r="C345" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D345" s="9">
+      <c r="D345" s="14">
         <v>88485</v>
       </c>
-      <c r="E345" s="7">
+      <c r="E345" s="12">
         <v>44174</v>
       </c>
     </row>
@@ -19196,10 +19499,10 @@
       <c r="C346" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D346" s="9">
+      <c r="D346" s="14">
         <v>94176</v>
       </c>
-      <c r="E346" s="7">
+      <c r="E346" s="12">
         <v>44175</v>
       </c>
     </row>
@@ -19213,10 +19516,10 @@
       <c r="C347" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D347" s="9">
+      <c r="D347" s="14">
         <v>68258</v>
       </c>
-      <c r="E347" s="7">
+      <c r="E347" s="12">
         <v>44176</v>
       </c>
     </row>
@@ -19230,10 +19533,10 @@
       <c r="C348" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D348" s="9">
+      <c r="D348" s="14">
         <v>31398</v>
       </c>
-      <c r="E348" s="7">
+      <c r="E348" s="12">
         <v>44177</v>
       </c>
     </row>
@@ -19247,10 +19550,10 @@
       <c r="C349" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D349" s="9">
+      <c r="D349" s="14">
         <v>95302</v>
       </c>
-      <c r="E349" s="7">
+      <c r="E349" s="12">
         <v>44178</v>
       </c>
     </row>
@@ -19264,10 +19567,10 @@
       <c r="C350" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="9">
+      <c r="D350" s="14">
         <v>71264</v>
       </c>
-      <c r="E350" s="7">
+      <c r="E350" s="12">
         <v>44179</v>
       </c>
     </row>
@@ -19281,10 +19584,10 @@
       <c r="C351" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D351" s="9">
+      <c r="D351" s="14">
         <v>59503</v>
       </c>
-      <c r="E351" s="7">
+      <c r="E351" s="12">
         <v>44180</v>
       </c>
     </row>
@@ -19298,10 +19601,10 @@
       <c r="C352" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D352" s="9">
+      <c r="D352" s="14">
         <v>51475</v>
       </c>
-      <c r="E352" s="7">
+      <c r="E352" s="12">
         <v>44181</v>
       </c>
     </row>
@@ -19315,10 +19618,10 @@
       <c r="C353" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D353" s="9">
+      <c r="D353" s="14">
         <v>50003</v>
       </c>
-      <c r="E353" s="7">
+      <c r="E353" s="12">
         <v>44182</v>
       </c>
     </row>
@@ -19332,10 +19635,10 @@
       <c r="C354" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D354" s="9">
+      <c r="D354" s="14">
         <v>37924</v>
       </c>
-      <c r="E354" s="7">
+      <c r="E354" s="12">
         <v>44183</v>
       </c>
     </row>
@@ -19349,10 +19652,10 @@
       <c r="C355" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D355" s="9">
+      <c r="D355" s="14">
         <v>98516</v>
       </c>
-      <c r="E355" s="7">
+      <c r="E355" s="12">
         <v>44184</v>
       </c>
     </row>
@@ -19366,10 +19669,10 @@
       <c r="C356" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D356" s="9">
+      <c r="D356" s="14">
         <v>43282</v>
       </c>
-      <c r="E356" s="7">
+      <c r="E356" s="12">
         <v>44185</v>
       </c>
     </row>
@@ -19383,10 +19686,10 @@
       <c r="C357" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D357" s="9">
+      <c r="D357" s="14">
         <v>34841</v>
       </c>
-      <c r="E357" s="7">
+      <c r="E357" s="12">
         <v>44186</v>
       </c>
     </row>
@@ -19400,10 +19703,10 @@
       <c r="C358" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D358" s="9">
+      <c r="D358" s="14">
         <v>82719</v>
       </c>
-      <c r="E358" s="7">
+      <c r="E358" s="12">
         <v>44187</v>
       </c>
     </row>
@@ -19417,10 +19720,10 @@
       <c r="C359" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D359" s="9">
+      <c r="D359" s="14">
         <v>92425</v>
       </c>
-      <c r="E359" s="7">
+      <c r="E359" s="12">
         <v>44188</v>
       </c>
     </row>
@@ -19434,10 +19737,10 @@
       <c r="C360" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D360" s="9">
+      <c r="D360" s="14">
         <v>46796</v>
       </c>
-      <c r="E360" s="7">
+      <c r="E360" s="12">
         <v>44189</v>
       </c>
     </row>
@@ -19451,10 +19754,10 @@
       <c r="C361" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D361" s="9">
+      <c r="D361" s="14">
         <v>57213</v>
       </c>
-      <c r="E361" s="7">
+      <c r="E361" s="12">
         <v>44190</v>
       </c>
     </row>
@@ -19468,10 +19771,10 @@
       <c r="C362" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D362" s="9">
+      <c r="D362" s="14">
         <v>69926</v>
       </c>
-      <c r="E362" s="7">
+      <c r="E362" s="12">
         <v>44191</v>
       </c>
     </row>
@@ -19485,10 +19788,10 @@
       <c r="C363" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D363" s="9">
+      <c r="D363" s="14">
         <v>62186</v>
       </c>
-      <c r="E363" s="7">
+      <c r="E363" s="12">
         <v>44192</v>
       </c>
     </row>
@@ -19502,10 +19805,10 @@
       <c r="C364" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D364" s="9">
+      <c r="D364" s="14">
         <v>94136</v>
       </c>
-      <c r="E364" s="7">
+      <c r="E364" s="12">
         <v>44193</v>
       </c>
     </row>
@@ -19519,10 +19822,10 @@
       <c r="C365" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D365" s="9">
+      <c r="D365" s="14">
         <v>59759</v>
       </c>
-      <c r="E365" s="7">
+      <c r="E365" s="12">
         <v>44194</v>
       </c>
     </row>
@@ -19536,10 +19839,10 @@
       <c r="C366" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D366" s="9">
+      <c r="D366" s="14">
         <v>98652</v>
       </c>
-      <c r="E366" s="7">
+      <c r="E366" s="12">
         <v>44195</v>
       </c>
     </row>
@@ -19553,10 +19856,10 @@
       <c r="C367" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D367" s="9">
+      <c r="D367" s="14">
         <v>46545</v>
       </c>
-      <c r="E367" s="7">
+      <c r="E367" s="12">
         <v>44196</v>
       </c>
     </row>
@@ -19570,10 +19873,10 @@
       <c r="C368" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D368" s="9">
+      <c r="D368" s="14">
         <v>33457</v>
       </c>
-      <c r="E368" s="7">
+      <c r="E368" s="12">
         <v>44197</v>
       </c>
     </row>
@@ -19587,10 +19890,10 @@
       <c r="C369" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D369" s="9">
+      <c r="D369" s="14">
         <v>84682</v>
       </c>
-      <c r="E369" s="7">
+      <c r="E369" s="12">
         <v>44198</v>
       </c>
     </row>
@@ -19604,10 +19907,10 @@
       <c r="C370" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D370" s="9">
+      <c r="D370" s="14">
         <v>68592</v>
       </c>
-      <c r="E370" s="7">
+      <c r="E370" s="12">
         <v>44199</v>
       </c>
     </row>
@@ -19621,10 +19924,10 @@
       <c r="C371" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D371" s="9">
+      <c r="D371" s="14">
         <v>63032</v>
       </c>
-      <c r="E371" s="7">
+      <c r="E371" s="12">
         <v>44200</v>
       </c>
     </row>
@@ -19638,10 +19941,10 @@
       <c r="C372" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D372" s="9">
+      <c r="D372" s="14">
         <v>76912</v>
       </c>
-      <c r="E372" s="7">
+      <c r="E372" s="12">
         <v>44201</v>
       </c>
     </row>
@@ -19655,10 +19958,10 @@
       <c r="C373" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D373" s="9">
+      <c r="D373" s="14">
         <v>46100</v>
       </c>
-      <c r="E373" s="7">
+      <c r="E373" s="12">
         <v>44202</v>
       </c>
     </row>
@@ -19672,10 +19975,10 @@
       <c r="C374" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D374" s="9">
+      <c r="D374" s="14">
         <v>48865</v>
       </c>
-      <c r="E374" s="7">
+      <c r="E374" s="12">
         <v>44203</v>
       </c>
     </row>
@@ -19689,10 +19992,10 @@
       <c r="C375" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D375" s="9">
+      <c r="D375" s="14">
         <v>70287</v>
       </c>
-      <c r="E375" s="7">
+      <c r="E375" s="12">
         <v>44204</v>
       </c>
     </row>
@@ -19706,10 +20009,10 @@
       <c r="C376" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D376" s="9">
+      <c r="D376" s="14">
         <v>56952</v>
       </c>
-      <c r="E376" s="7">
+      <c r="E376" s="12">
         <v>44205</v>
       </c>
     </row>
@@ -19723,10 +20026,10 @@
       <c r="C377" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D377" s="9">
+      <c r="D377" s="14">
         <v>77045</v>
       </c>
-      <c r="E377" s="7">
+      <c r="E377" s="12">
         <v>44206</v>
       </c>
     </row>
@@ -19740,10 +20043,10 @@
       <c r="C378" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D378" s="9">
+      <c r="D378" s="14">
         <v>69651</v>
       </c>
-      <c r="E378" s="7">
+      <c r="E378" s="12">
         <v>44207</v>
       </c>
     </row>
@@ -19757,10 +20060,10 @@
       <c r="C379" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D379" s="9">
+      <c r="D379" s="14">
         <v>37247</v>
       </c>
-      <c r="E379" s="7">
+      <c r="E379" s="12">
         <v>44208</v>
       </c>
     </row>
@@ -19774,10 +20077,10 @@
       <c r="C380" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D380" s="9">
+      <c r="D380" s="14">
         <v>49082</v>
       </c>
-      <c r="E380" s="7">
+      <c r="E380" s="12">
         <v>44209</v>
       </c>
     </row>
@@ -19791,10 +20094,10 @@
       <c r="C381" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D381" s="9">
+      <c r="D381" s="14">
         <v>52906</v>
       </c>
-      <c r="E381" s="7">
+      <c r="E381" s="12">
         <v>44210</v>
       </c>
     </row>
@@ -19808,10 +20111,10 @@
       <c r="C382" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D382" s="9">
+      <c r="D382" s="14">
         <v>95647</v>
       </c>
-      <c r="E382" s="7">
+      <c r="E382" s="12">
         <v>44211</v>
       </c>
     </row>
@@ -19825,10 +20128,10 @@
       <c r="C383" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D383" s="9">
+      <c r="D383" s="14">
         <v>67731</v>
       </c>
-      <c r="E383" s="7">
+      <c r="E383" s="12">
         <v>44212</v>
       </c>
     </row>
@@ -19842,10 +20145,10 @@
       <c r="C384" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D384" s="9">
+      <c r="D384" s="14">
         <v>91848</v>
       </c>
-      <c r="E384" s="7">
+      <c r="E384" s="12">
         <v>44213</v>
       </c>
     </row>
@@ -19859,10 +20162,10 @@
       <c r="C385" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D385" s="9">
+      <c r="D385" s="14">
         <v>51443</v>
       </c>
-      <c r="E385" s="7">
+      <c r="E385" s="12">
         <v>44214</v>
       </c>
     </row>
@@ -19876,10 +20179,10 @@
       <c r="C386" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D386" s="9">
+      <c r="D386" s="14">
         <v>42135</v>
       </c>
-      <c r="E386" s="7">
+      <c r="E386" s="12">
         <v>44215</v>
       </c>
     </row>
@@ -19893,10 +20196,10 @@
       <c r="C387" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D387" s="9">
+      <c r="D387" s="14">
         <v>94669</v>
       </c>
-      <c r="E387" s="7">
+      <c r="E387" s="12">
         <v>44216</v>
       </c>
     </row>
@@ -19910,10 +20213,10 @@
       <c r="C388" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D388" s="9">
+      <c r="D388" s="14">
         <v>73375</v>
       </c>
-      <c r="E388" s="7">
+      <c r="E388" s="12">
         <v>44217</v>
       </c>
     </row>
@@ -19927,10 +20230,10 @@
       <c r="C389" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D389" s="9">
+      <c r="D389" s="14">
         <v>58783</v>
       </c>
-      <c r="E389" s="7">
+      <c r="E389" s="12">
         <v>44218</v>
       </c>
     </row>
@@ -19944,10 +20247,10 @@
       <c r="C390" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D390" s="9">
+      <c r="D390" s="14">
         <v>90678</v>
       </c>
-      <c r="E390" s="7">
+      <c r="E390" s="12">
         <v>44219</v>
       </c>
     </row>
@@ -19961,10 +20264,10 @@
       <c r="C391" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D391" s="9">
+      <c r="D391" s="14">
         <v>76681</v>
       </c>
-      <c r="E391" s="7">
+      <c r="E391" s="12">
         <v>44220</v>
       </c>
     </row>
@@ -19978,10 +20281,10 @@
       <c r="C392" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D392" s="9">
+      <c r="D392" s="14">
         <v>81298</v>
       </c>
-      <c r="E392" s="7">
+      <c r="E392" s="12">
         <v>44221</v>
       </c>
     </row>
@@ -19995,10 +20298,10 @@
       <c r="C393" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D393" s="9">
+      <c r="D393" s="14">
         <v>45918</v>
       </c>
-      <c r="E393" s="7">
+      <c r="E393" s="12">
         <v>44222</v>
       </c>
     </row>
@@ -20012,10 +20315,10 @@
       <c r="C394" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D394" s="9">
+      <c r="D394" s="14">
         <v>70980</v>
       </c>
-      <c r="E394" s="7">
+      <c r="E394" s="12">
         <v>44223</v>
       </c>
     </row>
@@ -20029,10 +20332,10 @@
       <c r="C395" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D395" s="9">
+      <c r="D395" s="14">
         <v>63362</v>
       </c>
-      <c r="E395" s="7">
+      <c r="E395" s="12">
         <v>44224</v>
       </c>
     </row>
@@ -20046,10 +20349,10 @@
       <c r="C396" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D396" s="9">
+      <c r="D396" s="14">
         <v>94587</v>
       </c>
-      <c r="E396" s="7">
+      <c r="E396" s="12">
         <v>44225</v>
       </c>
     </row>
@@ -20063,10 +20366,10 @@
       <c r="C397" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D397" s="9">
+      <c r="D397" s="14">
         <v>62011</v>
       </c>
-      <c r="E397" s="7">
+      <c r="E397" s="12">
         <v>44226</v>
       </c>
     </row>
@@ -20080,10 +20383,10 @@
       <c r="C398" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D398" s="9">
+      <c r="D398" s="14">
         <v>45819</v>
       </c>
-      <c r="E398" s="7">
+      <c r="E398" s="12">
         <v>44227</v>
       </c>
     </row>
@@ -20097,10 +20400,10 @@
       <c r="C399" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D399" s="9">
+      <c r="D399" s="14">
         <v>92627</v>
       </c>
-      <c r="E399" s="7">
+      <c r="E399" s="12">
         <v>44228</v>
       </c>
     </row>
@@ -20114,10 +20417,10 @@
       <c r="C400" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D400" s="9">
+      <c r="D400" s="14">
         <v>69697</v>
       </c>
-      <c r="E400" s="7">
+      <c r="E400" s="12">
         <v>44229</v>
       </c>
     </row>
@@ -20131,10 +20434,10 @@
       <c r="C401" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D401" s="9">
+      <c r="D401" s="14">
         <v>70592</v>
       </c>
-      <c r="E401" s="7">
+      <c r="E401" s="12">
         <v>44230</v>
       </c>
     </row>
@@ -20148,10 +20451,10 @@
       <c r="C402" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D402" s="9">
+      <c r="D402" s="14">
         <v>43847</v>
       </c>
-      <c r="E402" s="7">
+      <c r="E402" s="12">
         <v>44231</v>
       </c>
     </row>
@@ -20165,10 +20468,10 @@
       <c r="C403" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D403" s="9">
+      <c r="D403" s="14">
         <v>72519</v>
       </c>
-      <c r="E403" s="7">
+      <c r="E403" s="12">
         <v>44232</v>
       </c>
     </row>
@@ -20182,10 +20485,10 @@
       <c r="C404" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D404" s="9">
+      <c r="D404" s="14">
         <v>58666</v>
       </c>
-      <c r="E404" s="7">
+      <c r="E404" s="12">
         <v>44233</v>
       </c>
     </row>
@@ -20199,10 +20502,10 @@
       <c r="C405" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D405" s="9">
+      <c r="D405" s="14">
         <v>55871</v>
       </c>
-      <c r="E405" s="7">
+      <c r="E405" s="12">
         <v>44234</v>
       </c>
     </row>
@@ -20216,10 +20519,10 @@
       <c r="C406" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D406" s="9">
+      <c r="D406" s="14">
         <v>58546</v>
       </c>
-      <c r="E406" s="7">
+      <c r="E406" s="12">
         <v>44235</v>
       </c>
     </row>
@@ -20233,10 +20536,10 @@
       <c r="C407" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D407" s="9">
+      <c r="D407" s="14">
         <v>39470</v>
       </c>
-      <c r="E407" s="7">
+      <c r="E407" s="12">
         <v>44236</v>
       </c>
     </row>
@@ -20250,10 +20553,10 @@
       <c r="C408" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D408" s="9">
+      <c r="D408" s="14">
         <v>43485</v>
       </c>
-      <c r="E408" s="7">
+      <c r="E408" s="12">
         <v>44237</v>
       </c>
     </row>
@@ -20267,10 +20570,10 @@
       <c r="C409" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D409" s="9">
+      <c r="D409" s="14">
         <v>52667</v>
       </c>
-      <c r="E409" s="7">
+      <c r="E409" s="12">
         <v>44238</v>
       </c>
     </row>
@@ -20284,10 +20587,10 @@
       <c r="C410" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D410" s="9">
+      <c r="D410" s="14">
         <v>32818</v>
       </c>
-      <c r="E410" s="7">
+      <c r="E410" s="12">
         <v>44239</v>
       </c>
     </row>
@@ -20301,10 +20604,10 @@
       <c r="C411" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D411" s="9">
+      <c r="D411" s="14">
         <v>63405</v>
       </c>
-      <c r="E411" s="7">
+      <c r="E411" s="12">
         <v>44240</v>
       </c>
     </row>
@@ -20318,10 +20621,10 @@
       <c r="C412" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D412" s="9">
+      <c r="D412" s="14">
         <v>55341</v>
       </c>
-      <c r="E412" s="7">
+      <c r="E412" s="12">
         <v>44241</v>
       </c>
     </row>
@@ -20335,10 +20638,10 @@
       <c r="C413" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D413" s="9">
+      <c r="D413" s="14">
         <v>31269</v>
       </c>
-      <c r="E413" s="7">
+      <c r="E413" s="12">
         <v>44242</v>
       </c>
     </row>
@@ -20352,10 +20655,10 @@
       <c r="C414" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D414" s="9">
+      <c r="D414" s="14">
         <v>77976</v>
       </c>
-      <c r="E414" s="7">
+      <c r="E414" s="12">
         <v>44243</v>
       </c>
     </row>
@@ -20369,10 +20672,10 @@
       <c r="C415" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D415" s="9">
+      <c r="D415" s="14">
         <v>32434</v>
       </c>
-      <c r="E415" s="7">
+      <c r="E415" s="12">
         <v>44244</v>
       </c>
     </row>
@@ -20386,10 +20689,10 @@
       <c r="C416" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D416" s="9">
+      <c r="D416" s="14">
         <v>80343</v>
       </c>
-      <c r="E416" s="7">
+      <c r="E416" s="12">
         <v>44245</v>
       </c>
     </row>
@@ -20403,10 +20706,10 @@
       <c r="C417" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D417" s="9">
+      <c r="D417" s="14">
         <v>61228</v>
       </c>
-      <c r="E417" s="7">
+      <c r="E417" s="12">
         <v>44246</v>
       </c>
     </row>
@@ -20420,10 +20723,10 @@
       <c r="C418" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D418" s="9">
+      <c r="D418" s="14">
         <v>99310</v>
       </c>
-      <c r="E418" s="7">
+      <c r="E418" s="12">
         <v>44247</v>
       </c>
     </row>
@@ -20437,10 +20740,10 @@
       <c r="C419" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D419" s="9">
+      <c r="D419" s="14">
         <v>73889</v>
       </c>
-      <c r="E419" s="7">
+      <c r="E419" s="12">
         <v>44248</v>
       </c>
     </row>
@@ -20454,10 +20757,10 @@
       <c r="C420" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D420" s="9">
+      <c r="D420" s="14">
         <v>48338</v>
       </c>
-      <c r="E420" s="7">
+      <c r="E420" s="12">
         <v>44249</v>
       </c>
     </row>
@@ -20471,10 +20774,10 @@
       <c r="C421" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D421" s="9">
+      <c r="D421" s="14">
         <v>34490</v>
       </c>
-      <c r="E421" s="7">
+      <c r="E421" s="12">
         <v>44250</v>
       </c>
     </row>
@@ -20488,10 +20791,10 @@
       <c r="C422" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D422" s="9">
+      <c r="D422" s="14">
         <v>60408</v>
       </c>
-      <c r="E422" s="7">
+      <c r="E422" s="12">
         <v>44251</v>
       </c>
     </row>
@@ -20505,10 +20808,10 @@
       <c r="C423" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D423" s="9">
+      <c r="D423" s="14">
         <v>37306</v>
       </c>
-      <c r="E423" s="7">
+      <c r="E423" s="12">
         <v>44252</v>
       </c>
     </row>
@@ -20522,10 +20825,10 @@
       <c r="C424" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D424" s="9">
+      <c r="D424" s="14">
         <v>81432</v>
       </c>
-      <c r="E424" s="7">
+      <c r="E424" s="12">
         <v>44253</v>
       </c>
     </row>
@@ -20539,10 +20842,10 @@
       <c r="C425" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D425" s="9">
+      <c r="D425" s="14">
         <v>97925</v>
       </c>
-      <c r="E425" s="7">
+      <c r="E425" s="12">
         <v>44254</v>
       </c>
     </row>
@@ -20556,10 +20859,10 @@
       <c r="C426" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D426" s="9">
+      <c r="D426" s="14">
         <v>40451</v>
       </c>
-      <c r="E426" s="7">
+      <c r="E426" s="12">
         <v>44255</v>
       </c>
     </row>
@@ -20573,10 +20876,10 @@
       <c r="C427" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D427" s="9">
+      <c r="D427" s="14">
         <v>95723</v>
       </c>
-      <c r="E427" s="7">
+      <c r="E427" s="12">
         <v>44256</v>
       </c>
     </row>
@@ -20590,10 +20893,10 @@
       <c r="C428" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D428" s="9">
+      <c r="D428" s="14">
         <v>51585</v>
       </c>
-      <c r="E428" s="7">
+      <c r="E428" s="12">
         <v>44257</v>
       </c>
     </row>
@@ -20607,10 +20910,10 @@
       <c r="C429" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D429" s="9">
+      <c r="D429" s="14">
         <v>97096</v>
       </c>
-      <c r="E429" s="7">
+      <c r="E429" s="12">
         <v>44258</v>
       </c>
     </row>
@@ -20624,10 +20927,10 @@
       <c r="C430" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D430" s="9">
+      <c r="D430" s="14">
         <v>98691</v>
       </c>
-      <c r="E430" s="7">
+      <c r="E430" s="12">
         <v>44259</v>
       </c>
     </row>
@@ -20641,10 +20944,10 @@
       <c r="C431" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D431" s="9">
+      <c r="D431" s="14">
         <v>79788</v>
       </c>
-      <c r="E431" s="7">
+      <c r="E431" s="12">
         <v>44260</v>
       </c>
     </row>
@@ -20658,10 +20961,10 @@
       <c r="C432" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D432" s="9">
+      <c r="D432" s="14">
         <v>39981</v>
       </c>
-      <c r="E432" s="7">
+      <c r="E432" s="12">
         <v>44261</v>
       </c>
     </row>
@@ -20675,10 +20978,10 @@
       <c r="C433" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D433" s="9">
+      <c r="D433" s="14">
         <v>54302</v>
       </c>
-      <c r="E433" s="7">
+      <c r="E433" s="12">
         <v>44262</v>
       </c>
     </row>
@@ -20692,10 +20995,10 @@
       <c r="C434" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D434" s="9">
+      <c r="D434" s="14">
         <v>41906</v>
       </c>
-      <c r="E434" s="7">
+      <c r="E434" s="12">
         <v>44263</v>
       </c>
     </row>
@@ -20709,10 +21012,10 @@
       <c r="C435" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D435" s="9">
+      <c r="D435" s="14">
         <v>86661</v>
       </c>
-      <c r="E435" s="7">
+      <c r="E435" s="12">
         <v>44264</v>
       </c>
     </row>
@@ -20726,10 +21029,10 @@
       <c r="C436" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D436" s="9">
+      <c r="D436" s="14">
         <v>42867</v>
       </c>
-      <c r="E436" s="7">
+      <c r="E436" s="12">
         <v>44265</v>
       </c>
     </row>
@@ -20743,10 +21046,10 @@
       <c r="C437" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D437" s="9">
+      <c r="D437" s="14">
         <v>92619</v>
       </c>
-      <c r="E437" s="7">
+      <c r="E437" s="12">
         <v>44266</v>
       </c>
     </row>
@@ -20760,10 +21063,10 @@
       <c r="C438" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D438" s="9">
+      <c r="D438" s="14">
         <v>40086</v>
       </c>
-      <c r="E438" s="7">
+      <c r="E438" s="12">
         <v>44267</v>
       </c>
     </row>
@@ -20777,10 +21080,10 @@
       <c r="C439" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D439" s="9">
+      <c r="D439" s="14">
         <v>69251</v>
       </c>
-      <c r="E439" s="7">
+      <c r="E439" s="12">
         <v>44268</v>
       </c>
     </row>
@@ -20794,10 +21097,10 @@
       <c r="C440" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D440" s="9">
+      <c r="D440" s="14">
         <v>59750</v>
       </c>
-      <c r="E440" s="7">
+      <c r="E440" s="12">
         <v>44269</v>
       </c>
     </row>
@@ -20811,10 +21114,10 @@
       <c r="C441" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D441" s="9">
+      <c r="D441" s="14">
         <v>68573</v>
       </c>
-      <c r="E441" s="7">
+      <c r="E441" s="12">
         <v>44270</v>
       </c>
     </row>
@@ -20828,10 +21131,10 @@
       <c r="C442" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D442" s="9">
+      <c r="D442" s="14">
         <v>59151</v>
       </c>
-      <c r="E442" s="7">
+      <c r="E442" s="12">
         <v>44271</v>
       </c>
     </row>
@@ -20845,10 +21148,10 @@
       <c r="C443" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D443" s="9">
+      <c r="D443" s="14">
         <v>37982</v>
       </c>
-      <c r="E443" s="7">
+      <c r="E443" s="12">
         <v>44272</v>
       </c>
     </row>
@@ -20862,10 +21165,10 @@
       <c r="C444" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D444" s="9">
+      <c r="D444" s="14">
         <v>80834</v>
       </c>
-      <c r="E444" s="7">
+      <c r="E444" s="12">
         <v>44273</v>
       </c>
     </row>
@@ -20879,10 +21182,10 @@
       <c r="C445" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D445" s="9">
+      <c r="D445" s="14">
         <v>87672</v>
       </c>
-      <c r="E445" s="7">
+      <c r="E445" s="12">
         <v>44274</v>
       </c>
     </row>
@@ -20896,10 +21199,10 @@
       <c r="C446" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D446" s="9">
+      <c r="D446" s="14">
         <v>35779</v>
       </c>
-      <c r="E446" s="7">
+      <c r="E446" s="12">
         <v>44275</v>
       </c>
     </row>
@@ -20913,10 +21216,10 @@
       <c r="C447" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D447" s="9">
+      <c r="D447" s="14">
         <v>79972</v>
       </c>
-      <c r="E447" s="7">
+      <c r="E447" s="12">
         <v>44276</v>
       </c>
     </row>
@@ -20930,10 +21233,10 @@
       <c r="C448" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D448" s="9">
+      <c r="D448" s="14">
         <v>86578</v>
       </c>
-      <c r="E448" s="7">
+      <c r="E448" s="12">
         <v>44277</v>
       </c>
     </row>
@@ -20947,10 +21250,10 @@
       <c r="C449" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D449" s="9">
+      <c r="D449" s="14">
         <v>48744</v>
       </c>
-      <c r="E449" s="7">
+      <c r="E449" s="12">
         <v>44278</v>
       </c>
     </row>
@@ -20964,10 +21267,10 @@
       <c r="C450" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D450" s="9">
+      <c r="D450" s="14">
         <v>78409</v>
       </c>
-      <c r="E450" s="7">
+      <c r="E450" s="12">
         <v>44279</v>
       </c>
     </row>
@@ -20981,10 +21284,10 @@
       <c r="C451" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D451" s="9">
+      <c r="D451" s="14">
         <v>47211</v>
       </c>
-      <c r="E451" s="7">
+      <c r="E451" s="12">
         <v>44280</v>
       </c>
     </row>
@@ -20998,10 +21301,10 @@
       <c r="C452" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D452" s="9">
+      <c r="D452" s="14">
         <v>85497</v>
       </c>
-      <c r="E452" s="7">
+      <c r="E452" s="12">
         <v>44281</v>
       </c>
     </row>
@@ -21015,10 +21318,10 @@
       <c r="C453" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D453" s="9">
+      <c r="D453" s="14">
         <v>44735</v>
       </c>
-      <c r="E453" s="7">
+      <c r="E453" s="12">
         <v>44282</v>
       </c>
     </row>
@@ -21032,10 +21335,10 @@
       <c r="C454" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D454" s="9">
+      <c r="D454" s="14">
         <v>50886</v>
       </c>
-      <c r="E454" s="7">
+      <c r="E454" s="12">
         <v>44283</v>
       </c>
     </row>
@@ -21049,10 +21352,10 @@
       <c r="C455" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D455" s="9">
+      <c r="D455" s="14">
         <v>92147</v>
       </c>
-      <c r="E455" s="7">
+      <c r="E455" s="12">
         <v>44284</v>
       </c>
     </row>
@@ -21066,10 +21369,10 @@
       <c r="C456" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D456" s="9">
+      <c r="D456" s="14">
         <v>48965</v>
       </c>
-      <c r="E456" s="7">
+      <c r="E456" s="12">
         <v>44285</v>
       </c>
     </row>
@@ -21083,10 +21386,10 @@
       <c r="C457" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D457" s="9">
+      <c r="D457" s="14">
         <v>57751</v>
       </c>
-      <c r="E457" s="7">
+      <c r="E457" s="12">
         <v>44286</v>
       </c>
     </row>
@@ -21100,10 +21403,10 @@
       <c r="C458" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D458" s="9">
+      <c r="D458" s="14">
         <v>36489</v>
       </c>
-      <c r="E458" s="7">
+      <c r="E458" s="12">
         <v>44287</v>
       </c>
     </row>
@@ -21117,10 +21420,10 @@
       <c r="C459" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D459" s="9">
+      <c r="D459" s="14">
         <v>56436</v>
       </c>
-      <c r="E459" s="7">
+      <c r="E459" s="12">
         <v>44288</v>
       </c>
     </row>
@@ -21134,10 +21437,10 @@
       <c r="C460" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D460" s="9">
+      <c r="D460" s="14">
         <v>45575</v>
       </c>
-      <c r="E460" s="7">
+      <c r="E460" s="12">
         <v>44289</v>
       </c>
     </row>
@@ -21151,10 +21454,10 @@
       <c r="C461" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D461" s="9">
+      <c r="D461" s="14">
         <v>80798</v>
       </c>
-      <c r="E461" s="7">
+      <c r="E461" s="12">
         <v>44290</v>
       </c>
     </row>
@@ -21168,10 +21471,10 @@
       <c r="C462" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D462" s="9">
+      <c r="D462" s="14">
         <v>31399</v>
       </c>
-      <c r="E462" s="7">
+      <c r="E462" s="12">
         <v>44291</v>
       </c>
     </row>
@@ -21185,10 +21488,10 @@
       <c r="C463" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D463" s="9">
+      <c r="D463" s="14">
         <v>70773</v>
       </c>
-      <c r="E463" s="7">
+      <c r="E463" s="12">
         <v>44292</v>
       </c>
     </row>
@@ -21202,14 +21505,14 @@
       <c r="C464" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D464" s="9">
+      <c r="D464" s="14">
         <v>88183</v>
       </c>
-      <c r="E464" s="7">
+      <c r="E464" s="12">
         <v>44293</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>4020</v>
       </c>
@@ -21219,14 +21522,14 @@
       <c r="C465" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D465" s="9">
+      <c r="D465" s="14">
         <v>64999</v>
       </c>
-      <c r="E465" s="7">
+      <c r="E465" s="12">
         <v>44294</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
         <v>4021</v>
       </c>
@@ -21236,14 +21539,14 @@
       <c r="C466" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D466" s="9">
+      <c r="D466" s="14">
         <v>45053</v>
       </c>
-      <c r="E466" s="7">
+      <c r="E466" s="12">
         <v>44295</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>4022</v>
       </c>
@@ -21253,14 +21556,14 @@
       <c r="C467" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D467" s="9">
+      <c r="D467" s="14">
         <v>35467</v>
       </c>
-      <c r="E467" s="7">
+      <c r="E467" s="12">
         <v>44296</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
         <v>4023</v>
       </c>
@@ -21270,14 +21573,14 @@
       <c r="C468" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D468" s="9">
+      <c r="D468" s="14">
         <v>95512</v>
       </c>
-      <c r="E468" s="7">
+      <c r="E468" s="12">
         <v>44297</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
         <v>4024</v>
       </c>
@@ -21287,14 +21590,14 @@
       <c r="C469" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D469" s="9">
+      <c r="D469" s="14">
         <v>46595</v>
       </c>
-      <c r="E469" s="7">
+      <c r="E469" s="12">
         <v>44298</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="5" t="s">
         <v>4025</v>
       </c>
@@ -21304,14 +21607,14 @@
       <c r="C470" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D470" s="9">
+      <c r="D470" s="14">
         <v>35544</v>
       </c>
-      <c r="E470" s="7">
+      <c r="E470" s="12">
         <v>44299</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
         <v>4026</v>
       </c>
@@ -21321,14 +21624,14 @@
       <c r="C471" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D471" s="9">
+      <c r="D471" s="14">
         <v>72510</v>
       </c>
-      <c r="E471" s="7">
+      <c r="E471" s="12">
         <v>44300</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>4027</v>
       </c>
@@ -21338,14 +21641,14 @@
       <c r="C472" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D472" s="9">
+      <c r="D472" s="14">
         <v>64091</v>
       </c>
-      <c r="E472" s="7">
+      <c r="E472" s="12">
         <v>44301</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
         <v>4028</v>
       </c>
@@ -21355,14 +21658,14 @@
       <c r="C473" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D473" s="9">
+      <c r="D473" s="14">
         <v>85324</v>
       </c>
-      <c r="E473" s="7">
+      <c r="E473" s="12">
         <v>44302</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
         <v>4029</v>
       </c>
@@ -21372,14 +21675,14 @@
       <c r="C474" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D474" s="9">
+      <c r="D474" s="14">
         <v>43518</v>
       </c>
-      <c r="E474" s="7">
+      <c r="E474" s="12">
         <v>44303</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
         <v>4030</v>
       </c>
@@ -21389,14 +21692,14 @@
       <c r="C475" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D475" s="9">
+      <c r="D475" s="14">
         <v>67003</v>
       </c>
-      <c r="E475" s="7">
+      <c r="E475" s="12">
         <v>44304</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="5" t="s">
         <v>4031</v>
       </c>
@@ -21406,14 +21709,26 @@
       <c r="C476" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D476" s="9">
+      <c r="D476" s="14">
         <v>67870</v>
       </c>
-      <c r="E476" s="7">
+      <c r="E476" s="12">
         <v>44305</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H476" t="s">
+        <v>4133</v>
+      </c>
+      <c r="I476" t="s">
+        <v>4134</v>
+      </c>
+      <c r="J476" t="s">
+        <v>4135</v>
+      </c>
+      <c r="K476" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
         <v>4032</v>
       </c>
@@ -21423,14 +21738,26 @@
       <c r="C477" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D477" s="9">
+      <c r="D477" s="14">
         <v>95338</v>
       </c>
-      <c r="E477" s="7">
+      <c r="E477" s="12">
         <v>44306</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H477" t="s">
+        <v>4130</v>
+      </c>
+      <c r="I477" t="s">
+        <v>4131</v>
+      </c>
+      <c r="J477" t="s">
+        <v>4132</v>
+      </c>
+      <c r="K477" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
         <v>4033</v>
       </c>
@@ -21440,14 +21767,26 @@
       <c r="C478" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D478" s="9">
+      <c r="D478" s="14">
         <v>69281</v>
       </c>
-      <c r="E478" s="7">
+      <c r="E478" s="12">
         <v>44307</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H478" t="s">
+        <v>4133</v>
+      </c>
+      <c r="I478" t="s">
+        <v>4134</v>
+      </c>
+      <c r="J478" t="s">
+        <v>4135</v>
+      </c>
+      <c r="K478" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>4034</v>
       </c>
@@ -21457,14 +21796,26 @@
       <c r="C479" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D479" s="9">
+      <c r="D479" s="14">
         <v>62086</v>
       </c>
-      <c r="E479" s="7">
+      <c r="E479" s="12">
         <v>44308</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H479">
+        <v>77</v>
+      </c>
+      <c r="I479">
+        <v>59</v>
+      </c>
+      <c r="J479">
+        <v>76</v>
+      </c>
+      <c r="K479">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
         <v>4035</v>
       </c>
@@ -21474,14 +21825,26 @@
       <c r="C480" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D480" s="9">
+      <c r="D480" s="14">
         <v>62071</v>
       </c>
-      <c r="E480" s="7">
+      <c r="E480" s="12">
         <v>44309</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H480">
+        <v>39</v>
+      </c>
+      <c r="I480">
+        <v>54</v>
+      </c>
+      <c r="J480">
+        <v>81</v>
+      </c>
+      <c r="K480">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
         <v>4036</v>
       </c>
@@ -21491,14 +21854,26 @@
       <c r="C481" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D481" s="9">
+      <c r="D481" s="14">
         <v>76104</v>
       </c>
-      <c r="E481" s="7">
+      <c r="E481" s="12">
         <v>44310</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H481">
+        <v>13</v>
+      </c>
+      <c r="I481">
+        <v>78</v>
+      </c>
+      <c r="J481">
+        <v>91</v>
+      </c>
+      <c r="K481">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
         <v>4037</v>
       </c>
@@ -21508,14 +21883,26 @@
       <c r="C482" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D482" s="9">
+      <c r="D482" s="14">
         <v>89119</v>
       </c>
-      <c r="E482" s="7">
+      <c r="E482" s="12">
         <v>44311</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H482">
+        <v>55</v>
+      </c>
+      <c r="I482">
+        <v>26</v>
+      </c>
+      <c r="J482">
+        <v>44</v>
+      </c>
+      <c r="K482">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
         <v>4038</v>
       </c>
@@ -21525,14 +21912,26 @@
       <c r="C483" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D483" s="9">
+      <c r="D483" s="14">
         <v>66700</v>
       </c>
-      <c r="E483" s="7">
+      <c r="E483" s="12">
         <v>44312</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H483">
+        <v>14</v>
+      </c>
+      <c r="I483">
+        <v>36</v>
+      </c>
+      <c r="J483">
+        <v>78</v>
+      </c>
+      <c r="K483">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
         <v>4039</v>
       </c>
@@ -21542,14 +21941,26 @@
       <c r="C484" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D484" s="9">
+      <c r="D484" s="14">
         <v>52412</v>
       </c>
-      <c r="E484" s="7">
+      <c r="E484" s="12">
         <v>44313</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H484">
+        <v>76</v>
+      </c>
+      <c r="I484">
+        <v>72</v>
+      </c>
+      <c r="J484">
+        <v>41</v>
+      </c>
+      <c r="K484">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>4040</v>
       </c>
@@ -21559,14 +21970,26 @@
       <c r="C485" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D485" s="9">
+      <c r="D485" s="14">
         <v>39107</v>
       </c>
-      <c r="E485" s="7">
+      <c r="E485" s="12">
         <v>44314</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H485">
+        <v>46</v>
+      </c>
+      <c r="I485">
+        <v>75</v>
+      </c>
+      <c r="J485">
+        <v>22</v>
+      </c>
+      <c r="K485">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
         <v>4041</v>
       </c>
@@ -21576,14 +21999,26 @@
       <c r="C486" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D486" s="9">
+      <c r="D486" s="14">
         <v>74753</v>
       </c>
-      <c r="E486" s="7">
+      <c r="E486" s="12">
         <v>44315</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H486">
+        <v>82</v>
+      </c>
+      <c r="I486">
+        <v>88</v>
+      </c>
+      <c r="J486">
+        <v>61</v>
+      </c>
+      <c r="K486">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
         <v>4042</v>
       </c>
@@ -21593,14 +22028,26 @@
       <c r="C487" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D487" s="9">
+      <c r="D487" s="14">
         <v>34451</v>
       </c>
-      <c r="E487" s="7">
+      <c r="E487" s="12">
         <v>44316</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H487">
+        <v>91</v>
+      </c>
+      <c r="I487">
+        <v>93</v>
+      </c>
+      <c r="J487">
+        <v>24</v>
+      </c>
+      <c r="K487">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="5" t="s">
         <v>4043</v>
       </c>
@@ -21610,14 +22057,26 @@
       <c r="C488" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D488" s="9">
+      <c r="D488" s="14">
         <v>85559</v>
       </c>
-      <c r="E488" s="7">
+      <c r="E488" s="12">
         <v>44317</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H488">
+        <v>55</v>
+      </c>
+      <c r="I488">
+        <v>19</v>
+      </c>
+      <c r="J488">
+        <v>71</v>
+      </c>
+      <c r="K488">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="5" t="s">
         <v>4044</v>
       </c>
@@ -21627,14 +22086,30 @@
       <c r="C489" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D489" s="9">
+      <c r="D489" s="14">
         <v>91259</v>
       </c>
-      <c r="E489" s="7">
+      <c r="E489" s="12">
         <v>44318</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H489">
+        <f>SUM(Table2[Column1])</f>
+        <v>548</v>
+      </c>
+      <c r="I489">
+        <f>SUM(Table2[Column2])</f>
+        <v>600</v>
+      </c>
+      <c r="J489">
+        <f>SUM(Table2[Column3])</f>
+        <v>589</v>
+      </c>
+      <c r="K489">
+        <f>SUM(Table2[Column4])</f>
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
         <v>4045</v>
       </c>
@@ -21644,14 +22119,14 @@
       <c r="C490" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D490" s="9">
+      <c r="D490" s="14">
         <v>49004</v>
       </c>
-      <c r="E490" s="7">
+      <c r="E490" s="12">
         <v>44319</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
         <v>4046</v>
       </c>
@@ -21661,14 +22136,14 @@
       <c r="C491" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D491" s="9">
+      <c r="D491" s="14">
         <v>62548</v>
       </c>
-      <c r="E491" s="7">
+      <c r="E491" s="12">
         <v>44320</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="5" t="s">
         <v>4047</v>
       </c>
@@ -21678,14 +22153,14 @@
       <c r="C492" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D492" s="9">
+      <c r="D492" s="14">
         <v>33517</v>
       </c>
-      <c r="E492" s="7">
+      <c r="E492" s="12">
         <v>44321</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="5" t="s">
         <v>4048</v>
       </c>
@@ -21695,14 +22170,14 @@
       <c r="C493" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D493" s="9">
+      <c r="D493" s="14">
         <v>40156</v>
       </c>
-      <c r="E493" s="7">
+      <c r="E493" s="12">
         <v>44322</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="5" t="s">
         <v>4049</v>
       </c>
@@ -21712,14 +22187,14 @@
       <c r="C494" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D494" s="9">
+      <c r="D494" s="14">
         <v>74450</v>
       </c>
-      <c r="E494" s="7">
+      <c r="E494" s="12">
         <v>44323</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
         <v>4050</v>
       </c>
@@ -21729,14 +22204,14 @@
       <c r="C495" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D495" s="9">
+      <c r="D495" s="14">
         <v>80523</v>
       </c>
-      <c r="E495" s="7">
+      <c r="E495" s="12">
         <v>44324</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
         <v>4051</v>
       </c>
@@ -21746,10 +22221,10 @@
       <c r="C496" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D496" s="9">
+      <c r="D496" s="14">
         <v>60266</v>
       </c>
-      <c r="E496" s="7">
+      <c r="E496" s="12">
         <v>44325</v>
       </c>
     </row>
@@ -21763,10 +22238,10 @@
       <c r="C497" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D497" s="9">
+      <c r="D497" s="14">
         <v>43477</v>
       </c>
-      <c r="E497" s="7">
+      <c r="E497" s="12">
         <v>44326</v>
       </c>
     </row>
@@ -21780,10 +22255,10 @@
       <c r="C498" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D498" s="9">
+      <c r="D498" s="14">
         <v>92915</v>
       </c>
-      <c r="E498" s="7">
+      <c r="E498" s="12">
         <v>44327</v>
       </c>
     </row>
@@ -21797,10 +22272,10 @@
       <c r="C499" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D499" s="9">
+      <c r="D499" s="14">
         <v>76666</v>
       </c>
-      <c r="E499" s="7">
+      <c r="E499" s="12">
         <v>44328</v>
       </c>
     </row>
@@ -21814,10 +22289,10 @@
       <c r="C500" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D500" s="9">
+      <c r="D500" s="14">
         <v>67908</v>
       </c>
-      <c r="E500" s="7">
+      <c r="E500" s="12">
         <v>44329</v>
       </c>
     </row>
@@ -21831,22 +22306,696 @@
       <c r="C501" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D501" s="9">
+      <c r="D501" s="14">
         <v>47209</v>
       </c>
-      <c r="E501" s="7">
+      <c r="E501" s="12">
         <v>44330</v>
       </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D502" s="15">
+        <f>SUM(D2:D501)</f>
+        <v>32607698</v>
+      </c>
+      <c r="E502"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E503"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E504"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E505"/>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E506"/>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E507"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E508"/>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E509"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E510"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E511"/>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E512"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E513"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E514"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E515"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E516"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E517"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E518"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E519"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E520"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E521"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E522"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E523"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E524"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E525"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E526"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E527"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E528"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E529"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E530"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E531"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E532"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E533"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E534"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E535"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E536"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E537"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E538"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E539"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E540"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E541"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E542"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E543"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E544"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E545"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E546"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E547"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E548"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E549"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E550"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E551"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E552"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E553"/>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E554"/>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E555"/>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E556"/>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E557"/>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E558"/>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E559"/>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E560"/>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E561"/>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E562"/>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E563"/>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E564"/>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E565"/>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E566"/>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E567"/>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E568"/>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E569"/>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E570"/>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E571"/>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E572"/>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E573"/>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E574"/>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E575"/>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E576"/>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E577"/>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E578"/>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E579"/>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E580"/>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E581"/>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E582"/>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E583"/>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E584"/>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E585"/>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E586"/>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E587"/>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E588"/>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E589"/>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E590"/>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E591"/>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E592"/>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E593"/>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E594"/>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E595"/>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E596"/>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E597"/>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E598"/>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E599"/>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E600"/>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E601"/>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E602"/>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E603"/>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E604"/>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E605"/>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E606"/>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E607"/>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E608"/>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E609"/>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E610"/>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E611"/>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E612"/>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E613"/>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E614"/>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E615"/>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E616"/>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E617"/>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E618"/>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E619"/>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E620"/>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E621"/>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E622"/>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E623"/>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E624"/>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E625"/>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E626"/>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E627"/>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E628"/>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E629"/>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E630"/>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E631"/>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E632"/>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E633"/>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E634"/>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E635"/>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E636"/>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E637"/>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E638"/>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E639"/>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E640"/>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E641"/>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E642"/>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E643"/>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E644"/>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E645"/>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E646"/>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E647"/>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E648"/>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E649"/>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E650"/>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E651"/>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E652"/>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E653"/>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E654"/>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E655"/>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E656"/>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E657"/>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E658"/>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E659"/>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E660"/>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E661"/>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E662"/>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E663"/>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E664"/>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E665"/>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E666"/>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E667"/>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E668"/>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E669"/>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E670"/>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E671"/>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E672"/>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E673"/>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E674"/>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E675"/>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E676"/>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E677"/>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E678"/>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E679"/>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E680"/>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E681"/>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E682"/>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E683"/>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E684"/>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E685"/>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E686"/>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E687"/>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E688"/>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E689"/>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E690"/>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E691"/>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E692"/>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E693"/>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E694"/>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E695"/>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E696"/>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E697"/>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E698"/>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E699"/>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E700"/>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E701"/>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E702"/>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E703"/>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E704"/>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E705"/>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E706"/>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E707"/>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E708"/>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E709"/>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E710"/>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E711"/>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E712"/>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E713"/>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E714"/>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E715"/>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E716"/>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E717"/>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E718"/>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E719"/>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E720"/>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E721"/>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E722"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:E501">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C2=$F$2</formula>
+    <cfRule type="expression" priority="2">
+      <formula>$C2&gt;99000</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C2="Sales"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -30385,7 +31534,7 @@
   <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1048576"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38924,14 +40073,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="17" customWidth="1"/>
     <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.21875" customWidth="1"/>
@@ -38945,7 +40094,7 @@
       <c r="B1" s="3" t="s">
         <v>4067</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>511</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -38968,7 +40117,7 @@
       <c r="B2" t="s">
         <v>4071</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>4084</v>
       </c>
       <c r="D2">
@@ -38991,7 +40140,7 @@
       <c r="B3" t="s">
         <v>4073</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>4085</v>
       </c>
       <c r="D3">
@@ -39014,7 +40163,7 @@
       <c r="B4" t="s">
         <v>4075</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>4086</v>
       </c>
       <c r="D4">
@@ -39037,7 +40186,7 @@
       <c r="B5" t="s">
         <v>4077</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>4087</v>
       </c>
       <c r="D5">
@@ -39060,7 +40209,7 @@
       <c r="B6" t="s">
         <v>4071</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>4088</v>
       </c>
       <c r="D6">
@@ -39083,7 +40232,7 @@
       <c r="B7" t="s">
         <v>4079</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>4089</v>
       </c>
       <c r="D7">
@@ -39106,7 +40255,7 @@
       <c r="B8" t="s">
         <v>4081</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>4090</v>
       </c>
       <c r="D8">
@@ -39129,7 +40278,7 @@
       <c r="B9" t="s">
         <v>4075</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>4091</v>
       </c>
       <c r="D9">
@@ -39152,7 +40301,7 @@
       <c r="B10" t="s">
         <v>4082</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>4092</v>
       </c>
       <c r="D10">
@@ -39175,7 +40324,7 @@
       <c r="B11" t="s">
         <v>4075</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>4093</v>
       </c>
       <c r="D11">
@@ -39213,16 +40362,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>4083</v>
       </c>
     </row>
@@ -39382,7 +40531,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>$C2=$F$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39406,112 +40555,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>4108</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>4109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>4110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>4111</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>4112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>4113</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>4114</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>4115</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>4116</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>4117</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>4118</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>4119</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>4120</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>4121</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>4122</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>4123</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>4124</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>4125</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>4126</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>4127</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>4128</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>4129</v>
       </c>
     </row>
